--- a/result/AllPatern/AllPatern.xlsx
+++ b/result/AllPatern/AllPatern.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtonghe/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E0B886-F00F-664A-B4B2-6AE4DA49FD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="SMOG"/>
-    <sheet r:id="rId2" sheetId="2" name="rps"/>
+    <sheet name="SMOG" sheetId="1" r:id="rId1"/>
+    <sheet name="rps" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="553">
   <si>
     <t>graph</t>
   </si>
@@ -1644,9 +1650,6 @@
   </si>
   <si>
     <t>p2p-Gnutella08</t>
-  </si>
-  <si>
-    <t>p2p-Gnutella09</t>
   </si>
   <si>
     <t>p2p-Gnutella24</t>
@@ -1682,13 +1685,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1697,6 +1699,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1726,47 +1735,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1777,10 +1780,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1818,71 +1821,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1910,7 +1913,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1933,11 +1936,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1946,13 +1949,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1962,7 +1965,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1971,7 +1974,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1980,7 +1983,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1988,10 +1991,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2056,7 +2059,2850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J35" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2477087</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3110467</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="G2" s="6">
+        <v>304441</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5.5190000000000001</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4915256</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1.758</v>
+      </c>
+      <c r="K2" s="6">
+        <v>67942</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10.476000000000001</v>
+      </c>
+      <c r="M2" s="6">
+        <v>6405886</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1.292</v>
+      </c>
+      <c r="O2" s="6">
+        <v>6267</v>
+      </c>
+      <c r="P2" s="7">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>2891271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.4540000000000006</v>
+      </c>
+      <c r="C3" s="6">
+        <v>32229022</v>
+      </c>
+      <c r="D3" s="3">
+        <v>14.532999999999999</v>
+      </c>
+      <c r="E3" s="6">
+        <v>40921800</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2510000000000003</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3975712</v>
+      </c>
+      <c r="H3" s="7">
+        <v>28.337</v>
+      </c>
+      <c r="I3" s="6">
+        <v>202015989</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9.8859999999999992</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3187886</v>
+      </c>
+      <c r="L3" s="3">
+        <v>130.64699999999999</v>
+      </c>
+      <c r="M3" s="6">
+        <v>249735343</v>
+      </c>
+      <c r="N3" s="7">
+        <v>7.7279999999999998</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1920570</v>
+      </c>
+      <c r="P3" s="7">
+        <v>30.628</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>126529077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.157</v>
+      </c>
+      <c r="C4" s="6">
+        <v>35492004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15.678000000000001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45276121</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6.7930000000000001</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4361282</v>
+      </c>
+      <c r="H4" s="7">
+        <v>57.186</v>
+      </c>
+      <c r="I4" s="6">
+        <v>229617605</v>
+      </c>
+      <c r="J4" s="7">
+        <v>9.5239999999999991</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3543622</v>
+      </c>
+      <c r="L4" s="3">
+        <v>158.15</v>
+      </c>
+      <c r="M4" s="6">
+        <v>282891801</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10.755000000000001</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2147049</v>
+      </c>
+      <c r="P4" s="7">
+        <v>43.835000000000001</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>141362172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>35661461</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15.901999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45701006</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4420994</v>
+      </c>
+      <c r="H5" s="7">
+        <v>54.311999999999998</v>
+      </c>
+      <c r="I5" s="6">
+        <v>232448240</v>
+      </c>
+      <c r="J5" s="7">
+        <v>7.1820000000000004</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3606466</v>
+      </c>
+      <c r="L5" s="3">
+        <v>159.38</v>
+      </c>
+      <c r="M5" s="6">
+        <v>285794903</v>
+      </c>
+      <c r="N5" s="7">
+        <v>11.654</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2193997</v>
+      </c>
+      <c r="P5" s="7">
+        <v>44.798000000000002</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>143515707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.217</v>
+      </c>
+      <c r="C6" s="6">
+        <v>288840</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>287940</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5636</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1452941</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5900</v>
+      </c>
+      <c r="L6" s="3">
+        <v>112.559</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1773657</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4779</v>
+      </c>
+      <c r="P6" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>410823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.345</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2287349</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2042272</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>53875</v>
+      </c>
+      <c r="H7" s="7">
+        <v>12.118</v>
+      </c>
+      <c r="I7" s="6">
+        <v>16546241</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>82231</v>
+      </c>
+      <c r="L7" s="3">
+        <v>375.214</v>
+      </c>
+      <c r="M7" s="6">
+        <v>23868747</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7.8479999999999999</v>
+      </c>
+      <c r="O7" s="6">
+        <v>102147</v>
+      </c>
+      <c r="P7" s="7">
+        <v>7.7119999999999997</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>5221539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44916549</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="E8" s="6">
+        <v>72355715</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.234</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9580415</v>
+      </c>
+      <c r="H8" s="7">
+        <v>80.885000000000005</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2545573891</v>
+      </c>
+      <c r="J8" s="7">
+        <v>23.324999999999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>64997961</v>
+      </c>
+      <c r="L8" s="3">
+        <v>249.38399999999999</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2732693146</v>
+      </c>
+      <c r="N8" s="7">
+        <v>276.73200000000003</v>
+      </c>
+      <c r="O8" s="6">
+        <v>400401488</v>
+      </c>
+      <c r="P8" s="7">
+        <v>71.353999999999999</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>2115036981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1505383</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2349650</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="G9" s="6">
+        <v>294008</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="I9" s="6">
+        <v>21403215</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="K9" s="6">
+        <v>511088</v>
+      </c>
+      <c r="L9" s="3">
+        <v>32.563000000000002</v>
+      </c>
+      <c r="M9" s="6">
+        <v>23018710</v>
+      </c>
+      <c r="N9" s="7">
+        <v>21.597000000000001</v>
+      </c>
+      <c r="O9" s="6">
+        <v>919604</v>
+      </c>
+      <c r="P9" s="7">
+        <v>6.141</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>16737753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1054723</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2041499</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.413</v>
+      </c>
+      <c r="G10" s="6">
+        <v>329297</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18.706</v>
+      </c>
+      <c r="I10" s="6">
+        <v>68885210</v>
+      </c>
+      <c r="J10" s="7">
+        <v>16.172999999999998</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2215500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>32.896000000000001</v>
+      </c>
+      <c r="M10" s="6">
+        <v>69763367</v>
+      </c>
+      <c r="N10" s="7">
+        <v>114.13200000000001</v>
+      </c>
+      <c r="O10" s="6">
+        <v>12898478</v>
+      </c>
+      <c r="P10" s="7">
+        <v>23.045000000000002</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>67338180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" s="3">
+        <v>19.117999999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>507961441</v>
+      </c>
+      <c r="D11" s="3">
+        <v>23.055</v>
+      </c>
+      <c r="E11" s="6">
+        <v>976450063</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10.771000000000001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>156497775</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2279.0500000000002</v>
+      </c>
+      <c r="I11" s="6">
+        <v>204140424631</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1079.01</v>
+      </c>
+      <c r="K11" s="6">
+        <v>6608523653</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5097.84</v>
+      </c>
+      <c r="M11" s="6">
+        <v>205227178026</v>
+      </c>
+      <c r="N11" s="7">
+        <v>58196.4</v>
+      </c>
+      <c r="O11" s="5">
+        <v>67967917219</v>
+      </c>
+      <c r="P11" s="7">
+        <v>2022.72</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>199285049763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>239081</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E12" s="6">
+        <v>429013</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G12" s="6">
+        <v>65592</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6.6269999999999998</v>
+      </c>
+      <c r="I12" s="6">
+        <v>8479804</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4.1150000000000002</v>
+      </c>
+      <c r="K12" s="6">
+        <v>279547</v>
+      </c>
+      <c r="L12" s="3">
+        <v>11.004</v>
+      </c>
+      <c r="M12" s="6">
+        <v>8518817</v>
+      </c>
+      <c r="N12" s="7">
+        <v>32.682000000000002</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1123584</v>
+      </c>
+      <c r="P12" s="7">
+        <v>8.9710000000000001</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>8407782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.35</v>
+      </c>
+      <c r="C13" s="6">
+        <v>39015537</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.556</v>
+      </c>
+      <c r="E13" s="6">
+        <v>36512540</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2562245</v>
+      </c>
+      <c r="H13" s="7">
+        <v>404.93</v>
+      </c>
+      <c r="I13" s="6">
+        <v>429991999</v>
+      </c>
+      <c r="J13" s="7">
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4262265</v>
+      </c>
+      <c r="L13" s="3">
+        <v>508.291</v>
+      </c>
+      <c r="M13" s="6">
+        <v>647492608</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53.104999999999997</v>
+      </c>
+      <c r="O13" s="6">
+        <v>6262553</v>
+      </c>
+      <c r="P13" s="7">
+        <v>99.022000000000006</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>209197863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.08</v>
+      </c>
+      <c r="C14" s="6">
+        <v>63698507</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.1349999999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <v>61934120</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4113289</v>
+      </c>
+      <c r="H14" s="7">
+        <v>93.051000000000002</v>
+      </c>
+      <c r="I14" s="6">
+        <v>967443899</v>
+      </c>
+      <c r="J14" s="7">
+        <v>31.527000000000001</v>
+      </c>
+      <c r="K14" s="6">
+        <v>9380530</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3662.77</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1386675032</v>
+      </c>
+      <c r="N14" s="7">
+        <v>77.760999999999996</v>
+      </c>
+      <c r="O14" s="6">
+        <v>19927580</v>
+      </c>
+      <c r="P14" s="7">
+        <v>60.017000000000003</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>439990809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="3">
+        <v>76.149000000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>341906226</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60.301000000000002</v>
+      </c>
+      <c r="E15" s="6">
+        <v>83785566</v>
+      </c>
+      <c r="F15" s="3">
+        <v>18.542000000000002</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3501071</v>
+      </c>
+      <c r="H15" s="7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>446804010</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3039636</v>
+      </c>
+      <c r="L15" s="3">
+        <v>534.03499999999997</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1776150458</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="O15" s="6">
+        <v>3151595</v>
+      </c>
+      <c r="P15" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>214057482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>36256665</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="E16" s="6">
+        <v>36528276</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2341639</v>
+      </c>
+      <c r="H16" s="7">
+        <v>173.79900000000001</v>
+      </c>
+      <c r="I16" s="6">
+        <v>720230791</v>
+      </c>
+      <c r="J16" s="7">
+        <v>3.9510000000000001</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5809356</v>
+      </c>
+      <c r="L16" s="3">
+        <v>338.50299999999999</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1018877581</v>
+      </c>
+      <c r="N16" s="7">
+        <v>20.138999999999999</v>
+      </c>
+      <c r="O16" s="6">
+        <v>11213163</v>
+      </c>
+      <c r="P16" s="7">
+        <v>78.582999999999998</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>303894917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7.8810000000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>17093921</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>12663071</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.248</v>
+      </c>
+      <c r="G17" s="6">
+        <v>581032</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1131.6600000000001</v>
+      </c>
+      <c r="I17" s="6">
+        <v>105766262</v>
+      </c>
+      <c r="J17" s="7">
+        <v>11.045</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1101520</v>
+      </c>
+      <c r="L17" s="3">
+        <v>583.88199999999995</v>
+      </c>
+      <c r="M17" s="6">
+        <v>217531995</v>
+      </c>
+      <c r="N17" s="7">
+        <v>34.234000000000002</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1633335</v>
+      </c>
+      <c r="P17" s="7">
+        <v>288.11700000000002</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>34119119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8.5719999999999992</v>
+      </c>
+      <c r="C18" s="6">
+        <v>144023053</v>
+      </c>
+      <c r="D18" s="3">
+        <v>7.9210000000000003</v>
+      </c>
+      <c r="E18" s="6">
+        <v>228787050</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>30004668</v>
+      </c>
+      <c r="H18" s="7">
+        <v>384.88900000000001</v>
+      </c>
+      <c r="I18" s="6">
+        <v>21763153227</v>
+      </c>
+      <c r="J18" s="7">
+        <v>140.25299999999999</v>
+      </c>
+      <c r="K18" s="6">
+        <v>517965151</v>
+      </c>
+      <c r="L18" s="3">
+        <v>890.78499999999997</v>
+      </c>
+      <c r="M18" s="6">
+        <v>25095227541</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2720.43</v>
+      </c>
+      <c r="O18" s="6">
+        <v>7830937838</v>
+      </c>
+      <c r="P18" s="7">
+        <v>333.041</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>18073550424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1124.78</v>
+      </c>
+      <c r="C19" s="6">
+        <v>23124971168</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2067.4699999999998</v>
+      </c>
+      <c r="E19" s="6">
+        <v>37701640669</v>
+      </c>
+      <c r="F19" s="3">
+        <v>16.670999999999999</v>
+      </c>
+      <c r="G19" s="6">
+        <v>47798166</v>
+      </c>
+      <c r="H19" s="7">
+        <v>65799.199999999997</v>
+      </c>
+      <c r="I19" s="6">
+        <v>31234180596</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6">
+        <v>47798166</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1277.58</v>
+      </c>
+      <c r="M19" s="6">
+        <v>37701640669</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="6">
+        <v>47798166</v>
+      </c>
+      <c r="P19" s="7">
+        <v>41826.300000000003</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>62468361192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.048</v>
+      </c>
+      <c r="C20" s="6">
+        <v>23380701</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="E20" s="6">
+        <v>29261679</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2851308</v>
+      </c>
+      <c r="H20" s="7">
+        <v>106.017</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1141663792</v>
+      </c>
+      <c r="J20" s="7">
+        <v>17.975999999999999</v>
+      </c>
+      <c r="K20" s="6">
+        <v>19481391</v>
+      </c>
+      <c r="L20" s="3">
+        <v>340.541</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1412668691</v>
+      </c>
+      <c r="N20" s="7">
+        <v>191.01300000000001</v>
+      </c>
+      <c r="O20" s="6">
+        <v>117409296</v>
+      </c>
+      <c r="P20" s="7">
+        <v>90.402000000000001</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>770479983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" s="3">
+        <v>22.013999999999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>146652712</v>
+      </c>
+      <c r="D21" s="3">
+        <v>24.08</v>
+      </c>
+      <c r="E21" s="6">
+        <v>122513526</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="G21" s="6">
+        <v>6086852</v>
+      </c>
+      <c r="H21" s="7">
+        <v>337.86900000000003</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2385052206</v>
+      </c>
+      <c r="J21" s="7">
+        <v>11.827999999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <v>14570875</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2861.6</v>
+      </c>
+      <c r="M21" s="6">
+        <v>3649782390</v>
+      </c>
+      <c r="N21" s="7">
+        <v>49.9</v>
+      </c>
+      <c r="O21" s="6">
+        <v>28928240</v>
+      </c>
+      <c r="P21" s="7">
+        <v>118.70399999999999</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>843084102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>521</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C22" s="6">
+        <v>882711</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E22" s="6">
+        <v>903673</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G22" s="6">
+        <v>26610</v>
+      </c>
+      <c r="H22" s="7">
+        <v>12.73</v>
+      </c>
+      <c r="I22" s="6">
+        <v>7201602</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1.694</v>
+      </c>
+      <c r="K22" s="6">
+        <v>48224</v>
+      </c>
+      <c r="L22" s="3">
+        <v>271.82400000000001</v>
+      </c>
+      <c r="M22" s="6">
+        <v>8920546</v>
+      </c>
+      <c r="N22" s="7">
+        <v>7.4850000000000003</v>
+      </c>
+      <c r="O22" s="6">
+        <v>74010</v>
+      </c>
+      <c r="P22" s="7">
+        <v>7.9169999999999998</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>2584989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C23" s="6">
+        <v>862089</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>856275</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G23" s="6">
+        <v>19339</v>
+      </c>
+      <c r="H23" s="7">
+        <v>9.6329999999999991</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5631882</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1.393</v>
+      </c>
+      <c r="K23" s="6">
+        <v>25558</v>
+      </c>
+      <c r="L23" s="3">
+        <v>280.31900000000002</v>
+      </c>
+      <c r="M23" s="6">
+        <v>7079906</v>
+      </c>
+      <c r="N23" s="7">
+        <v>4.274</v>
+      </c>
+      <c r="O23" s="6">
+        <v>27610</v>
+      </c>
+      <c r="P23" s="7">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1653027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1047953</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1062429</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G24" s="6">
+        <v>27135</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15.63</v>
+      </c>
+      <c r="I24" s="6">
+        <v>8464828</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2.214</v>
+      </c>
+      <c r="K24" s="6">
+        <v>43369</v>
+      </c>
+      <c r="L24" s="3">
+        <v>277.96600000000001</v>
+      </c>
+      <c r="M24" s="6">
+        <v>10585976</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5.6779999999999999</v>
+      </c>
+      <c r="O24" s="6">
+        <v>58353</v>
+      </c>
+      <c r="P24" s="7">
+        <v>7.64</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>2715672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1086538</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1104592</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G25" s="6">
+        <v>29766</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10.087</v>
+      </c>
+      <c r="I25" s="6">
+        <v>9095735</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1.008</v>
+      </c>
+      <c r="K25" s="6">
+        <v>48256</v>
+      </c>
+      <c r="L25" s="3">
+        <v>275.36</v>
+      </c>
+      <c r="M25" s="6">
+        <v>11473075</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3.399</v>
+      </c>
+      <c r="O25" s="6">
+        <v>63557</v>
+      </c>
+      <c r="P25" s="7">
+        <v>5.8929999999999998</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>2981766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1039416</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.751</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1056059</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G26" s="6">
+        <v>26461</v>
+      </c>
+      <c r="H26" s="7">
+        <v>16.183</v>
+      </c>
+      <c r="I26" s="6">
+        <v>8426215</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1.601</v>
+      </c>
+      <c r="K26" s="6">
+        <v>43111</v>
+      </c>
+      <c r="L26" s="3">
+        <v>282.20400000000001</v>
+      </c>
+      <c r="M26" s="6">
+        <v>10532050</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="O26" s="6">
+        <v>57397</v>
+      </c>
+      <c r="P26" s="7">
+        <v>9.1460000000000008</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>2697855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>526</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1029499</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1044752</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G27" s="6">
+        <v>26032</v>
+      </c>
+      <c r="H27" s="7">
+        <v>12.759</v>
+      </c>
+      <c r="I27" s="6">
+        <v>8190827</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1.349</v>
+      </c>
+      <c r="K27" s="6">
+        <v>41425</v>
+      </c>
+      <c r="L27" s="3">
+        <v>272.28199999999998</v>
+      </c>
+      <c r="M27" s="6">
+        <v>10266580</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="O27" s="6">
+        <v>53748</v>
+      </c>
+      <c r="P27" s="7">
+        <v>7.9610000000000003</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>2617554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A28" t="s">
+        <v>527</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1029394</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1044280</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G28" s="6">
+        <v>26021</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9.7409999999999997</v>
+      </c>
+      <c r="I28" s="6">
+        <v>8167375</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1.698</v>
+      </c>
+      <c r="K28" s="6">
+        <v>42024</v>
+      </c>
+      <c r="L28" s="3">
+        <v>269.10000000000002</v>
+      </c>
+      <c r="M28" s="6">
+        <v>10227080</v>
+      </c>
+      <c r="N28" s="7">
+        <v>5.6260000000000003</v>
+      </c>
+      <c r="O28" s="6">
+        <v>56363</v>
+      </c>
+      <c r="P28" s="7">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>2619801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>528</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1036037</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.499</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1053528</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G29" s="6">
+        <v>26855</v>
+      </c>
+      <c r="H29" s="7">
+        <v>15.404</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8422989</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.643</v>
+      </c>
+      <c r="K29" s="6">
+        <v>45008</v>
+      </c>
+      <c r="L29" s="3">
+        <v>275.33100000000002</v>
+      </c>
+      <c r="M29" s="6">
+        <v>10522786</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4.5810000000000004</v>
+      </c>
+      <c r="O29" s="6">
+        <v>62383</v>
+      </c>
+      <c r="P29" s="7">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>2752923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>529</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.504</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1127118</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1143939</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G30" s="6">
+        <v>30479</v>
+      </c>
+      <c r="H30" s="7">
+        <v>15.055999999999999</v>
+      </c>
+      <c r="I30" s="6">
+        <v>9287382</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="K30" s="6">
+        <v>46025</v>
+      </c>
+      <c r="L30" s="3">
+        <v>282.76600000000002</v>
+      </c>
+      <c r="M30" s="6">
+        <v>11810065</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="O30" s="6">
+        <v>54635</v>
+      </c>
+      <c r="P30" s="7">
+        <v>7.84</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>2979066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>530</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3864085</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4534433</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G31" s="6">
+        <v>346110</v>
+      </c>
+      <c r="H31" s="7">
+        <v>18.041</v>
+      </c>
+      <c r="I31" s="6">
+        <v>96857189</v>
+      </c>
+      <c r="J31" s="7">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1225487</v>
+      </c>
+      <c r="L31" s="3">
+        <v>280.94799999999998</v>
+      </c>
+      <c r="M31" s="6">
+        <v>128199789</v>
+      </c>
+      <c r="N31" s="7">
+        <v>32.164999999999999</v>
+      </c>
+      <c r="O31" s="6">
+        <v>3486756</v>
+      </c>
+      <c r="P31" s="7">
+        <v>15.465</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>55375107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A32" t="s">
+        <v>531</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.415</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3676432</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4274174</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G32" s="6">
+        <v>310832</v>
+      </c>
+      <c r="H32" s="7">
+        <v>25.202999999999999</v>
+      </c>
+      <c r="I32" s="6">
+        <v>86547287</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4.5529999999999999</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1018894</v>
+      </c>
+      <c r="L32" s="3">
+        <v>282.12599999999998</v>
+      </c>
+      <c r="M32" s="6">
+        <v>114316252</v>
+      </c>
+      <c r="N32" s="7">
+        <v>25.332999999999998</v>
+      </c>
+      <c r="O32" s="6">
+        <v>2589878</v>
+      </c>
+      <c r="P32" s="7">
+        <v>15.724</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>47372241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A33" t="s">
+        <v>532</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4395393</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5168925</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G33" s="6">
+        <v>384812</v>
+      </c>
+      <c r="H33" s="7">
+        <v>19.946000000000002</v>
+      </c>
+      <c r="I33" s="6">
+        <v>114632553</v>
+      </c>
+      <c r="J33" s="7">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1357613</v>
+      </c>
+      <c r="L33" s="3">
+        <v>281.642</v>
+      </c>
+      <c r="M33" s="6">
+        <v>150875771</v>
+      </c>
+      <c r="N33" s="7">
+        <v>21.751000000000001</v>
+      </c>
+      <c r="O33" s="6">
+        <v>3732350</v>
+      </c>
+      <c r="P33" s="7">
+        <v>11.779</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>63016083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A34" t="s">
+        <v>533</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4034908</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4669252</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.749</v>
+      </c>
+      <c r="G34" s="6">
+        <v>328075</v>
+      </c>
+      <c r="H34" s="7">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="I34" s="6">
+        <v>96542004</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1057622</v>
+      </c>
+      <c r="L34" s="3">
+        <v>281.46499999999997</v>
+      </c>
+      <c r="M34" s="6">
+        <v>127655123</v>
+      </c>
+      <c r="N34" s="7">
+        <v>15.361000000000001</v>
+      </c>
+      <c r="O34" s="6">
+        <v>2612910</v>
+      </c>
+      <c r="P34" s="7">
+        <v>10.228</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>50902146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A35" t="s">
+        <v>534</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3850923</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E35" s="6">
+        <v>4393556</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G35" s="6">
+        <v>296111</v>
+      </c>
+      <c r="H35" s="7">
+        <v>19.009</v>
+      </c>
+      <c r="I35" s="6">
+        <v>87226143</v>
+      </c>
+      <c r="J35" s="7">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="K35" s="6">
+        <v>914846</v>
+      </c>
+      <c r="L35" s="3">
+        <v>284.47300000000001</v>
+      </c>
+      <c r="M35" s="6">
+        <v>116021694</v>
+      </c>
+      <c r="N35" s="7">
+        <v>13.97</v>
+      </c>
+      <c r="O35" s="6">
+        <v>2184648</v>
+      </c>
+      <c r="P35" s="7">
+        <v>10.222</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>45054363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A36" t="s">
+        <v>535</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3515244</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3997732</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G36" s="6">
+        <v>265128</v>
+      </c>
+      <c r="H36" s="7">
+        <v>22.797000000000001</v>
+      </c>
+      <c r="I36" s="6">
+        <v>76793351</v>
+      </c>
+      <c r="J36" s="7">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="K36" s="6">
+        <v>803624</v>
+      </c>
+      <c r="L36" s="3">
+        <v>281.62700000000001</v>
+      </c>
+      <c r="M36" s="6">
+        <v>101907997</v>
+      </c>
+      <c r="N36" s="7">
+        <v>19.652000000000001</v>
+      </c>
+      <c r="O36" s="6">
+        <v>1886911</v>
+      </c>
+      <c r="P36" s="7">
+        <v>12.045999999999999</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>39614316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A37" t="s">
+        <v>536</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3563170</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4054385</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G37" s="6">
+        <v>267660</v>
+      </c>
+      <c r="H37" s="7">
+        <v>27.716999999999999</v>
+      </c>
+      <c r="I37" s="6">
+        <v>78501518</v>
+      </c>
+      <c r="J37" s="7">
+        <v>3.419</v>
+      </c>
+      <c r="K37" s="6">
+        <v>819849</v>
+      </c>
+      <c r="L37" s="3">
+        <v>277.25299999999999</v>
+      </c>
+      <c r="M37" s="6">
+        <v>103741974</v>
+      </c>
+      <c r="N37" s="7">
+        <v>22.013000000000002</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1964260</v>
+      </c>
+      <c r="P37" s="7">
+        <v>14.298</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>40337997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4260328</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.056</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4940921</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G38" s="6">
+        <v>343439</v>
+      </c>
+      <c r="H38" s="7">
+        <v>35.722000000000001</v>
+      </c>
+      <c r="I38" s="6">
+        <v>106661610</v>
+      </c>
+      <c r="J38" s="7">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1170508</v>
+      </c>
+      <c r="L38" s="3">
+        <v>287.39699999999999</v>
+      </c>
+      <c r="M38" s="6">
+        <v>139293097</v>
+      </c>
+      <c r="N38" s="7">
+        <v>20.754000000000001</v>
+      </c>
+      <c r="O38" s="6">
+        <v>3140226</v>
+      </c>
+      <c r="P38" s="7">
+        <v>14.789</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>56056512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A39" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C39" s="6">
+        <v>4682574</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5550489</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.873</v>
+      </c>
+      <c r="G39" s="6">
+        <v>399013</v>
+      </c>
+      <c r="H39" s="7">
+        <v>20.169</v>
+      </c>
+      <c r="I39" s="6">
+        <v>130655968</v>
+      </c>
+      <c r="J39" s="7">
+        <v>5.883</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1500920</v>
+      </c>
+      <c r="L39" s="3">
+        <v>297.82100000000003</v>
+      </c>
+      <c r="M39" s="6">
+        <v>167586606</v>
+      </c>
+      <c r="N39" s="7">
+        <v>36.048000000000002</v>
+      </c>
+      <c r="O39" s="6">
+        <v>4496036</v>
+      </c>
+      <c r="P39" s="7">
+        <v>16.085000000000001</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>70406592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A40" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C40" s="6">
+        <v>28497</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="E40" s="6">
+        <v>750</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G40" s="6">
+        <v>3</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="I40" s="6">
+        <v>6</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1695</v>
+      </c>
+      <c r="N40" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A41" t="s">
+        <v>540</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C41" s="6">
+        <v>64998</v>
+      </c>
+      <c r="D41" s="3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>4928</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G41" s="6">
+        <v>55</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I41" s="6">
+        <v>3237</v>
+      </c>
+      <c r="J41" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="M41" s="6">
+        <v>22537</v>
+      </c>
+      <c r="N41" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A42" t="s">
+        <v>541</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="C42" s="6">
+        <v>90764</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E42" s="6">
+        <v>8477</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G42" s="6">
+        <v>45</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.311</v>
+      </c>
+      <c r="I42" s="6">
+        <v>2788</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="M42" s="6">
+        <v>65486</v>
+      </c>
+      <c r="N42" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A43" t="s">
+        <v>542</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C43" s="6">
+        <v>87885</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E43" s="6">
+        <v>15822</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>175</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I43" s="6">
+        <v>7544</v>
+      </c>
+      <c r="J43" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K43" s="6">
+        <v>6</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="M43" s="6">
+        <v>48937</v>
+      </c>
+      <c r="N43" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A44" t="s">
+        <v>543</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C44" s="6">
+        <v>8794</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E44" s="6">
+        <v>498</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G44" s="6">
+        <v>11</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I44" s="6">
+        <v>26</v>
+      </c>
+      <c r="J44" s="7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M44" s="6">
+        <v>178</v>
+      </c>
+      <c r="N44" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A45" t="s">
+        <v>544</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C45" s="6">
+        <v>13517</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="E45" s="6">
+        <v>410</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>7</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="I45" s="6">
+        <v>24</v>
+      </c>
+      <c r="J45" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="M45" s="6">
+        <v>166</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A46" t="s">
+        <v>545</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="C46" s="6">
+        <v>46363</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1109</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G46" s="6">
+        <v>13</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I46" s="6">
+        <v>42</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M46" s="6">
+        <v>1558</v>
+      </c>
+      <c r="N46" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A47" t="s">
+        <v>546</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C47" s="6">
+        <v>42466</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E47" s="6">
+        <v>922</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G47" s="6">
+        <v>16</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I47" s="6">
+        <v>40</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="M47" s="6">
+        <v>592</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A48" t="s">
+        <v>547</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="C48" s="6">
+        <v>262339</v>
+      </c>
+      <c r="D48" s="3">
+        <v>6.7069999999999999</v>
+      </c>
+      <c r="E48" s="6">
+        <v>12869</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="G48" s="6">
+        <v>42</v>
+      </c>
+      <c r="H48" s="7">
+        <v>5.0350000000000001</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>4.6689999999999996</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1373</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3.137</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <v>4.8369999999999997</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A49" t="s">
+        <v>548</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="C49" s="6">
+        <v>157802</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.246</v>
+      </c>
+      <c r="E49" s="6">
+        <v>5858</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="G49" s="6">
+        <v>21</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1.593</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.538</v>
+      </c>
+      <c r="M49" s="6">
+        <v>299</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1.258</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A50" t="s">
+        <v>549</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="C50" s="6">
+        <v>183252</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.9740000000000002</v>
+      </c>
+      <c r="E50" s="6">
+        <v>7494</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="G50" s="6">
+        <v>32</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="M50" s="6">
+        <v>476</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>1.944</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A51" t="s">
+        <v>550</v>
+      </c>
+      <c r="B51" s="3">
+        <v>21.126999999999999</v>
+      </c>
+      <c r="C51" s="6">
+        <v>166635817</v>
+      </c>
+      <c r="D51" s="3">
+        <v>18.138000000000002</v>
+      </c>
+      <c r="E51" s="6">
+        <v>112509146</v>
+      </c>
+      <c r="F51" s="3">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="G51" s="6">
+        <v>5803397</v>
+      </c>
+      <c r="H51" s="7">
+        <v>91.885999999999996</v>
+      </c>
+      <c r="I51" s="6">
+        <v>2578196450</v>
+      </c>
+      <c r="J51" s="7">
+        <v>22.477</v>
+      </c>
+      <c r="K51" s="6">
+        <v>17417432</v>
+      </c>
+      <c r="L51" s="3">
+        <v>942.38099999999997</v>
+      </c>
+      <c r="M51" s="6">
+        <v>4729789840</v>
+      </c>
+      <c r="N51" s="7">
+        <v>119.81699999999999</v>
+      </c>
+      <c r="O51" s="6">
+        <v>45703641</v>
+      </c>
+      <c r="P51" s="7">
+        <v>66.742000000000004</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>997173396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>551</v>
+      </c>
+      <c r="B52" s="3">
+        <v>15.385999999999999</v>
+      </c>
+      <c r="C52" s="6">
+        <v>49965153</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8.891</v>
+      </c>
+      <c r="E52" s="6">
+        <v>28774497</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1989958</v>
+      </c>
+      <c r="H52" s="7">
+        <v>60.921999999999997</v>
+      </c>
+      <c r="I52" s="6">
+        <v>870174916</v>
+      </c>
+      <c r="J52" s="7">
+        <v>17.172000000000001</v>
+      </c>
+      <c r="K52" s="6">
+        <v>10667149</v>
+      </c>
+      <c r="L52" s="3">
+        <v>541.72299999999996</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1259485940</v>
+      </c>
+      <c r="N52" s="7">
+        <v>102.733</v>
+      </c>
+      <c r="O52" s="6">
+        <v>46754083</v>
+      </c>
+      <c r="P52" s="7">
+        <v>56.820999999999998</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>484393905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>552</v>
+      </c>
+      <c r="B53" s="3">
+        <v>17.681999999999999</v>
+      </c>
+      <c r="C53" s="6">
+        <v>58678630</v>
+      </c>
+      <c r="D53" s="3">
+        <v>13.567</v>
+      </c>
+      <c r="E53" s="6">
+        <v>34060778</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="G53" s="6">
+        <v>2260269</v>
+      </c>
+      <c r="H53" s="7">
+        <v>81.134</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1027371282</v>
+      </c>
+      <c r="J53" s="7">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="K53" s="6">
+        <v>12596328</v>
+      </c>
+      <c r="L53" s="3">
+        <v>2436.5500000000002</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1477856348</v>
+      </c>
+      <c r="N53" s="7">
+        <v>173.89500000000001</v>
+      </c>
+      <c r="O53" s="6">
+        <v>57879044</v>
+      </c>
+      <c r="P53" s="7">
+        <v>65.995999999999995</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>569811453</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2064,2925 +4910,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="4" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.705</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2477087</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.099</v>
-      </c>
-      <c r="E2" s="9">
-        <v>3110467</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.559</v>
-      </c>
-      <c r="G2" s="9">
-        <v>304441</v>
-      </c>
-      <c r="H2" s="3">
-        <v>5.349</v>
-      </c>
-      <c r="I2" s="9">
-        <v>4915256</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1.351</v>
-      </c>
-      <c r="K2" s="9">
-        <v>67942</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10.476</v>
-      </c>
-      <c r="M2" s="9">
-        <v>6405886</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1.445</v>
-      </c>
-      <c r="O2" s="9">
-        <v>6267</v>
-      </c>
-      <c r="P2" s="3">
-        <v>6.633</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>2891271</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9.454</v>
-      </c>
-      <c r="C3" s="9">
-        <v>32229022</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14.533</v>
-      </c>
-      <c r="E3" s="9">
-        <v>40921800</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.251</v>
-      </c>
-      <c r="G3" s="9">
-        <v>3975712</v>
-      </c>
-      <c r="H3" s="3">
-        <v>47.81</v>
-      </c>
-      <c r="I3" s="9">
-        <v>202015989</v>
-      </c>
-      <c r="J3" s="3">
-        <v>7.718</v>
-      </c>
-      <c r="K3" s="9">
-        <v>3187886</v>
-      </c>
-      <c r="L3" s="3">
-        <v>130.647</v>
-      </c>
-      <c r="M3" s="9">
-        <v>249735343</v>
-      </c>
-      <c r="N3" s="3">
-        <v>11.34</v>
-      </c>
-      <c r="O3" s="9">
-        <v>1920570</v>
-      </c>
-      <c r="P3" s="3">
-        <v>69.568</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>126529077</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10.157</v>
-      </c>
-      <c r="C4" s="9">
-        <v>35492004</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15.678</v>
-      </c>
-      <c r="E4" s="9">
-        <v>45276121</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6.793</v>
-      </c>
-      <c r="G4" s="9">
-        <v>4361282</v>
-      </c>
-      <c r="H4" s="3">
-        <v>53.378</v>
-      </c>
-      <c r="I4" s="9">
-        <v>229617605</v>
-      </c>
-      <c r="J4" s="3">
-        <v>9.939</v>
-      </c>
-      <c r="K4" s="9">
-        <v>3543622</v>
-      </c>
-      <c r="L4" s="3">
-        <v>158.15</v>
-      </c>
-      <c r="M4" s="9">
-        <v>282891801</v>
-      </c>
-      <c r="N4" s="3">
-        <v>12.447</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2147049</v>
-      </c>
-      <c r="P4" s="3">
-        <v>78.517</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>141362172</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10.13</v>
-      </c>
-      <c r="C5" s="9">
-        <v>35661461</v>
-      </c>
-      <c r="D5" s="3">
-        <v>15.902</v>
-      </c>
-      <c r="E5" s="9">
-        <v>45701006</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6.396</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4420994</v>
-      </c>
-      <c r="H5" s="3">
-        <v>54.316</v>
-      </c>
-      <c r="I5" s="9">
-        <v>232448240</v>
-      </c>
-      <c r="J5" s="3">
-        <v>10.115</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3606466</v>
-      </c>
-      <c r="L5" s="3">
-        <v>159.38</v>
-      </c>
-      <c r="M5" s="9">
-        <v>285794903</v>
-      </c>
-      <c r="N5" s="3">
-        <v>12.589</v>
-      </c>
-      <c r="O5" s="9">
-        <v>2193997</v>
-      </c>
-      <c r="P5" s="3">
-        <v>81.506</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>143515707</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.217</v>
-      </c>
-      <c r="C6" s="9">
-        <v>288840</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.328</v>
-      </c>
-      <c r="E6" s="9">
-        <v>287940</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.195</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5636</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2.857</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1452941</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.565</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5900</v>
-      </c>
-      <c r="L6" s="3">
-        <v>112.559</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1773657</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="O6" s="9">
-        <v>4779</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5.084</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>410823</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.345</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2287349</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.846</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2042272</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.514</v>
-      </c>
-      <c r="G7" s="9">
-        <v>53875</v>
-      </c>
-      <c r="H7" s="3">
-        <v>14.387</v>
-      </c>
-      <c r="I7" s="9">
-        <v>16546241</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2.924</v>
-      </c>
-      <c r="K7" s="9">
-        <v>82231</v>
-      </c>
-      <c r="L7" s="3">
-        <v>375.214</v>
-      </c>
-      <c r="M7" s="9">
-        <v>23868747</v>
-      </c>
-      <c r="N7" s="3">
-        <v>12.634</v>
-      </c>
-      <c r="O7" s="9">
-        <v>102147</v>
-      </c>
-      <c r="P7" s="3">
-        <v>29.748</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>5221539</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3.626</v>
-      </c>
-      <c r="C8" s="9">
-        <v>44916549</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.477</v>
-      </c>
-      <c r="E8" s="9">
-        <v>72355715</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.234</v>
-      </c>
-      <c r="G8" s="9">
-        <v>9580415</v>
-      </c>
-      <c r="H8" s="3">
-        <v>156.173</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2545573891</v>
-      </c>
-      <c r="J8" s="3">
-        <v>28.862</v>
-      </c>
-      <c r="K8" s="9">
-        <v>64997961</v>
-      </c>
-      <c r="L8" s="3">
-        <v>249.384</v>
-      </c>
-      <c r="M8" s="9">
-        <v>2732693146</v>
-      </c>
-      <c r="N8" s="3">
-        <v>487.902</v>
-      </c>
-      <c r="O8" s="9">
-        <v>400401488</v>
-      </c>
-      <c r="P8" s="3">
-        <v>311.478</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>2115036981</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.483</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1505383</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.674</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2349650</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G9" s="9">
-        <v>294008</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9.791</v>
-      </c>
-      <c r="I9" s="9">
-        <v>21403215</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4.278</v>
-      </c>
-      <c r="K9" s="9">
-        <v>511088</v>
-      </c>
-      <c r="L9" s="3">
-        <v>32.563</v>
-      </c>
-      <c r="M9" s="9">
-        <v>23018710</v>
-      </c>
-      <c r="N9" s="3">
-        <v>31.817</v>
-      </c>
-      <c r="O9" s="9">
-        <v>919604</v>
-      </c>
-      <c r="P9" s="3">
-        <v>15.958</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>16737753</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.539</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1054723</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.662</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2041499</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.413</v>
-      </c>
-      <c r="G10" s="9">
-        <v>329297</v>
-      </c>
-      <c r="H10" s="3">
-        <v>33.274</v>
-      </c>
-      <c r="I10" s="9">
-        <v>68885210</v>
-      </c>
-      <c r="J10" s="3">
-        <v>18.502</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2215500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>32.896</v>
-      </c>
-      <c r="M10" s="9">
-        <v>69763367</v>
-      </c>
-      <c r="N10" s="3">
-        <v>253.061</v>
-      </c>
-      <c r="O10" s="9">
-        <v>12898478</v>
-      </c>
-      <c r="P10" s="3">
-        <v>68.947</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>67338180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B11" s="3">
-        <v>19.118</v>
-      </c>
-      <c r="C11" s="9">
-        <v>507961441</v>
-      </c>
-      <c r="D11" s="3">
-        <v>23.055</v>
-      </c>
-      <c r="E11" s="9">
-        <v>976450063</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10.771</v>
-      </c>
-      <c r="G11" s="9">
-        <v>156497775</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5010.58</v>
-      </c>
-      <c r="I11" s="9">
-        <v>204140424631</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1368.93</v>
-      </c>
-      <c r="K11" s="9">
-        <v>6608523653</v>
-      </c>
-      <c r="L11" s="3">
-        <v>5097.84</v>
-      </c>
-      <c r="M11" s="9">
-        <v>205227178026</v>
-      </c>
-      <c r="N11" s="7">
-        <v>66788</v>
-      </c>
-      <c r="O11" s="8">
-        <v>67967917219</v>
-      </c>
-      <c r="P11" s="3">
-        <v>10636.2</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>199285049763</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.264</v>
-      </c>
-      <c r="C12" s="9">
-        <v>239081</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.343</v>
-      </c>
-      <c r="E12" s="9">
-        <v>429013</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.814</v>
-      </c>
-      <c r="G12" s="9">
-        <v>65592</v>
-      </c>
-      <c r="H12" s="3">
-        <v>11.161</v>
-      </c>
-      <c r="I12" s="9">
-        <v>8479804</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8.246</v>
-      </c>
-      <c r="K12" s="9">
-        <v>279547</v>
-      </c>
-      <c r="L12" s="3">
-        <v>11.004</v>
-      </c>
-      <c r="M12" s="9">
-        <v>8518817</v>
-      </c>
-      <c r="N12" s="3">
-        <v>79.749</v>
-      </c>
-      <c r="O12" s="9">
-        <v>1123584</v>
-      </c>
-      <c r="P12" s="3">
-        <v>20.882</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>8407782</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="3">
-        <v>6.35</v>
-      </c>
-      <c r="C13" s="9">
-        <v>39015537</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.556</v>
-      </c>
-      <c r="E13" s="9">
-        <v>36512540</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.446</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2562245</v>
-      </c>
-      <c r="H13" s="3">
-        <v>67.256</v>
-      </c>
-      <c r="I13" s="9">
-        <v>429991999</v>
-      </c>
-      <c r="J13" s="3">
-        <v>7.786</v>
-      </c>
-      <c r="K13" s="9">
-        <v>4262265</v>
-      </c>
-      <c r="L13" s="3">
-        <v>508.291</v>
-      </c>
-      <c r="M13" s="9">
-        <v>647492608</v>
-      </c>
-      <c r="N13" s="3">
-        <v>56.52</v>
-      </c>
-      <c r="O13" s="9">
-        <v>6262553</v>
-      </c>
-      <c r="P13" s="3">
-        <v>112.416</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>209197863</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="3">
-        <v>8.08</v>
-      </c>
-      <c r="C14" s="9">
-        <v>63698507</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8.135</v>
-      </c>
-      <c r="E14" s="9">
-        <v>61934120</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.373</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4113289</v>
-      </c>
-      <c r="H14" s="3">
-        <v>95.614</v>
-      </c>
-      <c r="I14" s="9">
-        <v>967443899</v>
-      </c>
-      <c r="J14" s="3">
-        <v>12.642</v>
-      </c>
-      <c r="K14" s="9">
-        <v>9380530</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3662.77</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1386675032</v>
-      </c>
-      <c r="N14" s="3">
-        <v>112.64</v>
-      </c>
-      <c r="O14" s="9">
-        <v>19927580</v>
-      </c>
-      <c r="P14" s="3">
-        <v>251.093</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>439990809</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="3">
-        <v>76.149</v>
-      </c>
-      <c r="C15" s="9">
-        <v>341906226</v>
-      </c>
-      <c r="D15" s="3">
-        <v>60.301</v>
-      </c>
-      <c r="E15" s="9">
-        <v>83785566</v>
-      </c>
-      <c r="F15" s="3">
-        <v>18.542</v>
-      </c>
-      <c r="G15" s="9">
-        <v>3501071</v>
-      </c>
-      <c r="H15" s="3">
-        <v>105.509</v>
-      </c>
-      <c r="I15" s="9">
-        <v>446804010</v>
-      </c>
-      <c r="J15" s="3">
-        <v>25.77</v>
-      </c>
-      <c r="K15" s="9">
-        <v>3039636</v>
-      </c>
-      <c r="L15" s="3">
-        <v>534.035</v>
-      </c>
-      <c r="M15" s="9">
-        <v>1776150458</v>
-      </c>
-      <c r="N15" s="3">
-        <v>120.97</v>
-      </c>
-      <c r="O15" s="9">
-        <v>3151595</v>
-      </c>
-      <c r="P15" s="3">
-        <v>180.203</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>214057482</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5.314</v>
-      </c>
-      <c r="C16" s="9">
-        <v>36256665</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4.475</v>
-      </c>
-      <c r="E16" s="9">
-        <v>36528276</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.108</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2341639</v>
-      </c>
-      <c r="H16" s="3">
-        <v>97.504</v>
-      </c>
-      <c r="I16" s="9">
-        <v>720230791</v>
-      </c>
-      <c r="J16" s="3">
-        <v>7.581</v>
-      </c>
-      <c r="K16" s="9">
-        <v>5809356</v>
-      </c>
-      <c r="L16" s="3">
-        <v>338.503</v>
-      </c>
-      <c r="M16" s="9">
-        <v>1018877581</v>
-      </c>
-      <c r="N16" s="3">
-        <v>46.859</v>
-      </c>
-      <c r="O16" s="9">
-        <v>11213163</v>
-      </c>
-      <c r="P16" s="3">
-        <v>157.478</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>303894917</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7.881</v>
-      </c>
-      <c r="C17" s="9">
-        <v>17093921</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3.455</v>
-      </c>
-      <c r="E17" s="9">
-        <v>12663071</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1.248</v>
-      </c>
-      <c r="G17" s="9">
-        <v>581032</v>
-      </c>
-      <c r="H17" s="3">
-        <v>67.556</v>
-      </c>
-      <c r="I17" s="9">
-        <v>105766262</v>
-      </c>
-      <c r="J17" s="3">
-        <v>14.935</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1101520</v>
-      </c>
-      <c r="L17" s="3">
-        <v>583.882</v>
-      </c>
-      <c r="M17" s="9">
-        <v>217531995</v>
-      </c>
-      <c r="N17" s="3">
-        <v>82.108</v>
-      </c>
-      <c r="O17" s="9">
-        <v>1633335</v>
-      </c>
-      <c r="P17" s="3">
-        <v>90.632</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>34119119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B18" s="3">
-        <v>8.572</v>
-      </c>
-      <c r="C18" s="9">
-        <v>144023053</v>
-      </c>
-      <c r="D18" s="3">
-        <v>7.921</v>
-      </c>
-      <c r="E18" s="9">
-        <v>228787050</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3.713</v>
-      </c>
-      <c r="G18" s="9">
-        <v>30004668</v>
-      </c>
-      <c r="H18" s="3">
-        <v>768.665</v>
-      </c>
-      <c r="I18" s="9">
-        <v>21763153227</v>
-      </c>
-      <c r="J18" s="3">
-        <v>169.935</v>
-      </c>
-      <c r="K18" s="9">
-        <v>517965151</v>
-      </c>
-      <c r="L18" s="3">
-        <v>890.785</v>
-      </c>
-      <c r="M18" s="9">
-        <v>25095227541</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5920.11</v>
-      </c>
-      <c r="O18" s="9">
-        <v>7830937838</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1517.27</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>18073550424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1124.78</v>
-      </c>
-      <c r="C19" s="9">
-        <v>23124971168</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2067.47</v>
-      </c>
-      <c r="E19" s="9">
-        <v>37701640669</v>
-      </c>
-      <c r="F19" s="3">
-        <v>16.671</v>
-      </c>
-      <c r="G19" s="9">
-        <v>47798166</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2738.09</v>
-      </c>
-      <c r="I19" s="9">
-        <v>31234180596</v>
-      </c>
-      <c r="J19" s="3">
-        <v>16.76</v>
-      </c>
-      <c r="K19" s="9">
-        <v>47798166</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1277.58</v>
-      </c>
-      <c r="M19" s="9">
-        <v>37701640669</v>
-      </c>
-      <c r="N19" s="3">
-        <v>16.749</v>
-      </c>
-      <c r="O19" s="9">
-        <v>47798166</v>
-      </c>
-      <c r="P19" s="3">
-        <v>2714.73</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>62468361192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.048</v>
-      </c>
-      <c r="C20" s="9">
-        <v>23380701</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3.31</v>
-      </c>
-      <c r="E20" s="9">
-        <v>29261679</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.114</v>
-      </c>
-      <c r="G20" s="9">
-        <v>2851308</v>
-      </c>
-      <c r="H20" s="3">
-        <v>206.384</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1141663792</v>
-      </c>
-      <c r="J20" s="3">
-        <v>24.728</v>
-      </c>
-      <c r="K20" s="9">
-        <v>19481391</v>
-      </c>
-      <c r="L20" s="3">
-        <v>340.541</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1412668691</v>
-      </c>
-      <c r="N20" s="3">
-        <v>352.434</v>
-      </c>
-      <c r="O20" s="9">
-        <v>117409296</v>
-      </c>
-      <c r="P20" s="3">
-        <v>384.873</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>770479983</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B21" s="3">
-        <v>22.014</v>
-      </c>
-      <c r="C21" s="9">
-        <v>146652712</v>
-      </c>
-      <c r="D21" s="3">
-        <v>24.08</v>
-      </c>
-      <c r="E21" s="9">
-        <v>122513526</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4.068</v>
-      </c>
-      <c r="G21" s="9">
-        <v>6086852</v>
-      </c>
-      <c r="H21" s="3">
-        <v>308.205</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2385052206</v>
-      </c>
-      <c r="J21" s="3">
-        <v>13.755</v>
-      </c>
-      <c r="K21" s="9">
-        <v>14570875</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2861.6</v>
-      </c>
-      <c r="M21" s="9">
-        <v>3649782390</v>
-      </c>
-      <c r="N21" s="3">
-        <v>76.555</v>
-      </c>
-      <c r="O21" s="9">
-        <v>28928240</v>
-      </c>
-      <c r="P21" s="3">
-        <v>744.876</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>843084102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.456</v>
-      </c>
-      <c r="C22" s="9">
-        <v>882711</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.571</v>
-      </c>
-      <c r="E22" s="9">
-        <v>903673</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.329</v>
-      </c>
-      <c r="G22" s="9">
-        <v>26610</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10.885</v>
-      </c>
-      <c r="I22" s="9">
-        <v>7201602</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2.573</v>
-      </c>
-      <c r="K22" s="9">
-        <v>48224</v>
-      </c>
-      <c r="L22" s="3">
-        <v>271.824</v>
-      </c>
-      <c r="M22" s="9">
-        <v>8920546</v>
-      </c>
-      <c r="N22" s="3">
-        <v>11.999</v>
-      </c>
-      <c r="O22" s="9">
-        <v>74010</v>
-      </c>
-      <c r="P22" s="3">
-        <v>14.825</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>2584989</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.418</v>
-      </c>
-      <c r="C23" s="9">
-        <v>862089</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.429</v>
-      </c>
-      <c r="E23" s="9">
-        <v>856275</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.364</v>
-      </c>
-      <c r="G23" s="9">
-        <v>19339</v>
-      </c>
-      <c r="H23" s="3">
-        <v>7.295</v>
-      </c>
-      <c r="I23" s="9">
-        <v>5631882</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1.358</v>
-      </c>
-      <c r="K23" s="9">
-        <v>25558</v>
-      </c>
-      <c r="L23" s="3">
-        <v>280.319</v>
-      </c>
-      <c r="M23" s="9">
-        <v>7079906</v>
-      </c>
-      <c r="N23" s="3">
-        <v>4.718</v>
-      </c>
-      <c r="O23" s="9">
-        <v>27610</v>
-      </c>
-      <c r="P23" s="3">
-        <v>13.601</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>1653027</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.496</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1047953</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.493</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1062429</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.414</v>
-      </c>
-      <c r="G24" s="9">
-        <v>27135</v>
-      </c>
-      <c r="H24" s="3">
-        <v>8.484</v>
-      </c>
-      <c r="I24" s="9">
-        <v>8464828</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2.166</v>
-      </c>
-      <c r="K24" s="9">
-        <v>43369</v>
-      </c>
-      <c r="L24" s="3">
-        <v>277.966</v>
-      </c>
-      <c r="M24" s="9">
-        <v>10585976</v>
-      </c>
-      <c r="N24" s="3">
-        <v>9.248</v>
-      </c>
-      <c r="O24" s="9">
-        <v>58353</v>
-      </c>
-      <c r="P24" s="3">
-        <v>15.424</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>2715672</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.478</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1086538</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.455</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1104592</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.326</v>
-      </c>
-      <c r="G25" s="9">
-        <v>29766</v>
-      </c>
-      <c r="H25" s="3">
-        <v>8.759</v>
-      </c>
-      <c r="I25" s="9">
-        <v>9095735</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1.822</v>
-      </c>
-      <c r="K25" s="9">
-        <v>48256</v>
-      </c>
-      <c r="L25" s="3">
-        <v>275.36</v>
-      </c>
-      <c r="M25" s="9">
-        <v>11473075</v>
-      </c>
-      <c r="N25" s="3">
-        <v>7.227</v>
-      </c>
-      <c r="O25" s="9">
-        <v>63557</v>
-      </c>
-      <c r="P25" s="3">
-        <v>15.726</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>2981766</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.596</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1039416</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.751</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1056059</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.447</v>
-      </c>
-      <c r="G26" s="9">
-        <v>26461</v>
-      </c>
-      <c r="H26" s="3">
-        <v>10.38</v>
-      </c>
-      <c r="I26" s="9">
-        <v>8426215</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2.906</v>
-      </c>
-      <c r="K26" s="9">
-        <v>43111</v>
-      </c>
-      <c r="L26" s="3">
-        <v>282.204</v>
-      </c>
-      <c r="M26" s="9">
-        <v>10532050</v>
-      </c>
-      <c r="N26" s="3">
-        <v>11.886</v>
-      </c>
-      <c r="O26" s="9">
-        <v>57397</v>
-      </c>
-      <c r="P26" s="3">
-        <v>22.198</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>2697855</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.569</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1029499</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.514</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1044752</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.297</v>
-      </c>
-      <c r="G27" s="9">
-        <v>26032</v>
-      </c>
-      <c r="H27" s="3">
-        <v>9.039</v>
-      </c>
-      <c r="I27" s="9">
-        <v>8190827</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1.969</v>
-      </c>
-      <c r="K27" s="9">
-        <v>41425</v>
-      </c>
-      <c r="L27" s="3">
-        <v>272.282</v>
-      </c>
-      <c r="M27" s="9">
-        <v>10266580</v>
-      </c>
-      <c r="N27" s="3">
-        <v>7.658</v>
-      </c>
-      <c r="O27" s="9">
-        <v>53748</v>
-      </c>
-      <c r="P27" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>2617554</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.485</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1029394</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.515</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1044280</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.449</v>
-      </c>
-      <c r="G28" s="9">
-        <v>26021</v>
-      </c>
-      <c r="H28" s="3">
-        <v>8.661</v>
-      </c>
-      <c r="I28" s="9">
-        <v>8167375</v>
-      </c>
-      <c r="J28" s="3">
-        <v>2.067</v>
-      </c>
-      <c r="K28" s="9">
-        <v>42024</v>
-      </c>
-      <c r="L28" s="3">
-        <v>269.1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>10227080</v>
-      </c>
-      <c r="N28" s="3">
-        <v>8.345</v>
-      </c>
-      <c r="O28" s="9">
-        <v>56363</v>
-      </c>
-      <c r="P28" s="3">
-        <v>15.565</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>2619801</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.506</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1036037</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.499</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1053528</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.393</v>
-      </c>
-      <c r="G29" s="9">
-        <v>26855</v>
-      </c>
-      <c r="H29" s="3">
-        <v>8.104</v>
-      </c>
-      <c r="I29" s="9">
-        <v>8422989</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1.989</v>
-      </c>
-      <c r="K29" s="9">
-        <v>45008</v>
-      </c>
-      <c r="L29" s="3">
-        <v>275.331</v>
-      </c>
-      <c r="M29" s="9">
-        <v>10522786</v>
-      </c>
-      <c r="N29" s="3">
-        <v>8.093</v>
-      </c>
-      <c r="O29" s="9">
-        <v>62383</v>
-      </c>
-      <c r="P29" s="3">
-        <v>15.994</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>2752923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.504</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1127118</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.494</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1143939</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.333</v>
-      </c>
-      <c r="G30" s="9">
-        <v>30479</v>
-      </c>
-      <c r="H30" s="3">
-        <v>7.782</v>
-      </c>
-      <c r="I30" s="9">
-        <v>9287382</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1.69</v>
-      </c>
-      <c r="K30" s="9">
-        <v>46025</v>
-      </c>
-      <c r="L30" s="3">
-        <v>282.766</v>
-      </c>
-      <c r="M30" s="9">
-        <v>11810065</v>
-      </c>
-      <c r="N30" s="3">
-        <v>6.309</v>
-      </c>
-      <c r="O30" s="9">
-        <v>54635</v>
-      </c>
-      <c r="P30" s="3">
-        <v>15.099</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>2979066</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.915</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3864085</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.836</v>
-      </c>
-      <c r="E31" s="9">
-        <v>4534433</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.644</v>
-      </c>
-      <c r="G31" s="9">
-        <v>346110</v>
-      </c>
-      <c r="H31" s="3">
-        <v>25.549</v>
-      </c>
-      <c r="I31" s="9">
-        <v>96857189</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1225487</v>
-      </c>
-      <c r="L31" s="3">
-        <v>280.948</v>
-      </c>
-      <c r="M31" s="9">
-        <v>128199789</v>
-      </c>
-      <c r="N31" s="3">
-        <v>56.681</v>
-      </c>
-      <c r="O31" s="9">
-        <v>3486756</v>
-      </c>
-      <c r="P31" s="3">
-        <v>43.849</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>55375107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1.415</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3676432</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="E32" s="9">
-        <v>4274174</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.918</v>
-      </c>
-      <c r="G32" s="9">
-        <v>310832</v>
-      </c>
-      <c r="H32" s="3">
-        <v>21.89</v>
-      </c>
-      <c r="I32" s="9">
-        <v>86547287</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9.582</v>
-      </c>
-      <c r="K32" s="9">
-        <v>1018894</v>
-      </c>
-      <c r="L32" s="3">
-        <v>282.126</v>
-      </c>
-      <c r="M32" s="9">
-        <v>114316252</v>
-      </c>
-      <c r="N32" s="3">
-        <v>41.987</v>
-      </c>
-      <c r="O32" s="9">
-        <v>2589878</v>
-      </c>
-      <c r="P32" s="3">
-        <v>39.788</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>47372241</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.949</v>
-      </c>
-      <c r="C33" s="9">
-        <v>4395393</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.724</v>
-      </c>
-      <c r="E33" s="9">
-        <v>5168925</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.548</v>
-      </c>
-      <c r="G33" s="9">
-        <v>384812</v>
-      </c>
-      <c r="H33" s="3">
-        <v>26.336</v>
-      </c>
-      <c r="I33" s="9">
-        <v>114632553</v>
-      </c>
-      <c r="J33" s="3">
-        <v>7.101</v>
-      </c>
-      <c r="K33" s="9">
-        <v>1357613</v>
-      </c>
-      <c r="L33" s="3">
-        <v>281.642</v>
-      </c>
-      <c r="M33" s="9">
-        <v>150875771</v>
-      </c>
-      <c r="N33" s="3">
-        <v>56.128</v>
-      </c>
-      <c r="O33" s="9">
-        <v>3732350</v>
-      </c>
-      <c r="P33" s="3">
-        <v>42.432</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>63016083</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.864</v>
-      </c>
-      <c r="C34" s="9">
-        <v>4034908</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.765</v>
-      </c>
-      <c r="E34" s="9">
-        <v>4669252</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.749</v>
-      </c>
-      <c r="G34" s="9">
-        <v>328075</v>
-      </c>
-      <c r="H34" s="3">
-        <v>19.811</v>
-      </c>
-      <c r="I34" s="9">
-        <v>96542004</v>
-      </c>
-      <c r="J34" s="3">
-        <v>7.728</v>
-      </c>
-      <c r="K34" s="9">
-        <v>1057622</v>
-      </c>
-      <c r="L34" s="3">
-        <v>281.465</v>
-      </c>
-      <c r="M34" s="9">
-        <v>127655123</v>
-      </c>
-      <c r="N34" s="3">
-        <v>35.356</v>
-      </c>
-      <c r="O34" s="9">
-        <v>2612910</v>
-      </c>
-      <c r="P34" s="3">
-        <v>34.59</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>50902146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.777</v>
-      </c>
-      <c r="C35" s="9">
-        <v>3850923</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.683</v>
-      </c>
-      <c r="E35" s="9">
-        <v>4393556</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.718</v>
-      </c>
-      <c r="G35" s="9">
-        <v>296111</v>
-      </c>
-      <c r="H35" s="3">
-        <v>22.413</v>
-      </c>
-      <c r="I35" s="9">
-        <v>87226143</v>
-      </c>
-      <c r="J35" s="3">
-        <v>4.649</v>
-      </c>
-      <c r="K35" s="9">
-        <v>914846</v>
-      </c>
-      <c r="L35" s="3">
-        <v>284.473</v>
-      </c>
-      <c r="M35" s="9">
-        <v>116021694</v>
-      </c>
-      <c r="N35" s="3">
-        <v>31.24</v>
-      </c>
-      <c r="O35" s="9">
-        <v>2184648</v>
-      </c>
-      <c r="P35" s="3">
-        <v>38.086</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>45054363</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.936</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3515244</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.888</v>
-      </c>
-      <c r="E36" s="9">
-        <v>3997732</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.606</v>
-      </c>
-      <c r="G36" s="9">
-        <v>265128</v>
-      </c>
-      <c r="H36" s="3">
-        <v>21.834</v>
-      </c>
-      <c r="I36" s="9">
-        <v>76793351</v>
-      </c>
-      <c r="J36" s="3">
-        <v>4.774</v>
-      </c>
-      <c r="K36" s="9">
-        <v>803624</v>
-      </c>
-      <c r="L36" s="3">
-        <v>281.627</v>
-      </c>
-      <c r="M36" s="9">
-        <v>101907997</v>
-      </c>
-      <c r="N36" s="3">
-        <v>31.902</v>
-      </c>
-      <c r="O36" s="9">
-        <v>1886911</v>
-      </c>
-      <c r="P36" s="3">
-        <v>37.54</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>39614316</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.809</v>
-      </c>
-      <c r="C37" s="9">
-        <v>3563170</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.688</v>
-      </c>
-      <c r="E37" s="9">
-        <v>4054385</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.489</v>
-      </c>
-      <c r="G37" s="9">
-        <v>267660</v>
-      </c>
-      <c r="H37" s="3">
-        <v>20.627</v>
-      </c>
-      <c r="I37" s="9">
-        <v>78501518</v>
-      </c>
-      <c r="J37" s="3">
-        <v>7.114</v>
-      </c>
-      <c r="K37" s="9">
-        <v>819849</v>
-      </c>
-      <c r="L37" s="3">
-        <v>277.253</v>
-      </c>
-      <c r="M37" s="9">
-        <v>103741974</v>
-      </c>
-      <c r="N37" s="3">
-        <v>33.819</v>
-      </c>
-      <c r="O37" s="9">
-        <v>1964260</v>
-      </c>
-      <c r="P37" s="3">
-        <v>36.121</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>40337997</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.975</v>
-      </c>
-      <c r="C38" s="9">
-        <v>4260328</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.056</v>
-      </c>
-      <c r="E38" s="9">
-        <v>4940921</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.795</v>
-      </c>
-      <c r="G38" s="9">
-        <v>343439</v>
-      </c>
-      <c r="H38" s="3">
-        <v>22.724</v>
-      </c>
-      <c r="I38" s="9">
-        <v>106661610</v>
-      </c>
-      <c r="J38" s="3">
-        <v>9.233</v>
-      </c>
-      <c r="K38" s="9">
-        <v>1170508</v>
-      </c>
-      <c r="L38" s="3">
-        <v>287.397</v>
-      </c>
-      <c r="M38" s="9">
-        <v>139293097</v>
-      </c>
-      <c r="N38" s="3">
-        <v>36.452</v>
-      </c>
-      <c r="O38" s="9">
-        <v>3140226</v>
-      </c>
-      <c r="P38" s="3">
-        <v>39.167</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>56056512</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1.001</v>
-      </c>
-      <c r="C39" s="9">
-        <v>4682574</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.744</v>
-      </c>
-      <c r="E39" s="9">
-        <v>5550489</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.873</v>
-      </c>
-      <c r="G39" s="9">
-        <v>399013</v>
-      </c>
-      <c r="H39" s="3">
-        <v>23.838</v>
-      </c>
-      <c r="I39" s="9">
-        <v>130655968</v>
-      </c>
-      <c r="J39" s="3">
-        <v>7.556</v>
-      </c>
-      <c r="K39" s="9">
-        <v>1500920</v>
-      </c>
-      <c r="L39" s="3">
-        <v>297.821</v>
-      </c>
-      <c r="M39" s="9">
-        <v>167586606</v>
-      </c>
-      <c r="N39" s="3">
-        <v>56.517</v>
-      </c>
-      <c r="O39" s="9">
-        <v>4496036</v>
-      </c>
-      <c r="P39" s="3">
-        <v>49.436</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>70406592</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.332</v>
-      </c>
-      <c r="C40" s="9">
-        <v>28497</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.115</v>
-      </c>
-      <c r="E40" s="9">
-        <v>750</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.068</v>
-      </c>
-      <c r="G40" s="9">
-        <v>3</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.094</v>
-      </c>
-      <c r="I40" s="9">
-        <v>6</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0.052</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0.276</v>
-      </c>
-      <c r="M40" s="9">
-        <v>1695</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0.053</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0.087</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.195</v>
-      </c>
-      <c r="C41" s="9">
-        <v>64998</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.095</v>
-      </c>
-      <c r="E41" s="9">
-        <v>4928</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.049</v>
-      </c>
-      <c r="G41" s="9">
-        <v>55</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I41" s="9">
-        <v>3237</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0.047</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1.838</v>
-      </c>
-      <c r="M41" s="9">
-        <v>22537</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0.049</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0.341</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>696</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.193</v>
-      </c>
-      <c r="C42" s="9">
-        <v>90764</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.119</v>
-      </c>
-      <c r="E42" s="9">
-        <v>8477</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.062</v>
-      </c>
-      <c r="G42" s="9">
-        <v>45</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.231</v>
-      </c>
-      <c r="I42" s="9">
-        <v>2788</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0.058</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2.345</v>
-      </c>
-      <c r="M42" s="9">
-        <v>65486</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0.059</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0.217</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>543</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.229</v>
-      </c>
-      <c r="C43" s="9">
-        <v>87885</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="E43" s="9">
-        <v>15822</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.067</v>
-      </c>
-      <c r="G43" s="9">
-        <v>175</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.202</v>
-      </c>
-      <c r="I43" s="9">
-        <v>7544</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0.061</v>
-      </c>
-      <c r="K43" s="9">
-        <v>6</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1.676</v>
-      </c>
-      <c r="M43" s="9">
-        <v>48937</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0.243</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.166</v>
-      </c>
-      <c r="C44" s="9">
-        <v>96902</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.094</v>
-      </c>
-      <c r="E44" s="9">
-        <v>15472</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G44" s="9">
-        <v>160</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.228</v>
-      </c>
-      <c r="I44" s="9">
-        <v>7577</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0.07</v>
-      </c>
-      <c r="K44" s="9">
-        <v>6</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1.243</v>
-      </c>
-      <c r="M44" s="9">
-        <v>48445</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0.074</v>
-      </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>1068</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0.286</v>
-      </c>
-      <c r="C45" s="9">
-        <v>8794</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.145</v>
-      </c>
-      <c r="E45" s="9">
-        <v>498</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.079</v>
-      </c>
-      <c r="G45" s="9">
-        <v>11</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="I45" s="9">
-        <v>26</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0.056</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0.162</v>
-      </c>
-      <c r="M45" s="9">
-        <v>178</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0.057</v>
-      </c>
-      <c r="O45" s="9">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0.101</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0.324</v>
-      </c>
-      <c r="C46" s="9">
-        <v>13517</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="E46" s="9">
-        <v>410</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.085</v>
-      </c>
-      <c r="G46" s="9">
-        <v>7</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.167</v>
-      </c>
-      <c r="I46" s="9">
-        <v>24</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0.085</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0.192</v>
-      </c>
-      <c r="M46" s="9">
-        <v>166</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0.094</v>
-      </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0.174</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.249</v>
-      </c>
-      <c r="C47" s="9">
-        <v>46363</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.136</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1109</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.068</v>
-      </c>
-      <c r="G47" s="9">
-        <v>13</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.121</v>
-      </c>
-      <c r="I47" s="9">
-        <v>42</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0.068</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0.145</v>
-      </c>
-      <c r="M47" s="9">
-        <v>1558</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0.07</v>
-      </c>
-      <c r="O47" s="9">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0.107</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.492</v>
-      </c>
-      <c r="C48" s="9">
-        <v>42466</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.199</v>
-      </c>
-      <c r="E48" s="9">
-        <v>922</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.134</v>
-      </c>
-      <c r="G48" s="9">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.171</v>
-      </c>
-      <c r="I48" s="9">
-        <v>40</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0.093</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0.213</v>
-      </c>
-      <c r="M48" s="9">
-        <v>592</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0.095</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0.153</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B49" s="3">
-        <v>4.034</v>
-      </c>
-      <c r="C49" s="9">
-        <v>262339</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6.707</v>
-      </c>
-      <c r="E49" s="9">
-        <v>12869</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2.73</v>
-      </c>
-      <c r="G49" s="9">
-        <v>42</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4.812</v>
-      </c>
-      <c r="I49" s="9">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2.621</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4.669</v>
-      </c>
-      <c r="M49" s="9">
-        <v>1373</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2.616</v>
-      </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>4.389</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1.311</v>
-      </c>
-      <c r="C50" s="9">
-        <v>157802</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2.246</v>
-      </c>
-      <c r="E50" s="9">
-        <v>5858</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1.303</v>
-      </c>
-      <c r="G50" s="9">
-        <v>21</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="I50" s="9">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0.898</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1.538</v>
-      </c>
-      <c r="M50" s="9">
-        <v>299</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0.898</v>
-      </c>
-      <c r="O50" s="9">
-        <v>0</v>
-      </c>
-      <c r="P50" s="3">
-        <v>1.453</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="C51" s="9">
-        <v>183252</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2.974</v>
-      </c>
-      <c r="E51" s="9">
-        <v>7494</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1.602</v>
-      </c>
-      <c r="G51" s="9">
-        <v>32</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1.924</v>
-      </c>
-      <c r="I51" s="9">
-        <v>2</v>
-      </c>
-      <c r="J51" s="3">
-        <v>1.103</v>
-      </c>
-      <c r="K51" s="9">
-        <v>0</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="M51" s="9">
-        <v>476</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1.074</v>
-      </c>
-      <c r="O51" s="9">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <v>1.767</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B52" s="3">
-        <v>21.127</v>
-      </c>
-      <c r="C52" s="9">
-        <v>166635817</v>
-      </c>
-      <c r="D52" s="3">
-        <v>18.138</v>
-      </c>
-      <c r="E52" s="9">
-        <v>112509146</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.187</v>
-      </c>
-      <c r="G52" s="9">
-        <v>5803397</v>
-      </c>
-      <c r="H52" s="3">
-        <v>304.597</v>
-      </c>
-      <c r="I52" s="9">
-        <v>2578196450</v>
-      </c>
-      <c r="J52" s="3">
-        <v>32.267</v>
-      </c>
-      <c r="K52" s="9">
-        <v>17417432</v>
-      </c>
-      <c r="L52" s="3">
-        <v>942.381</v>
-      </c>
-      <c r="M52" s="9">
-        <v>4729789840</v>
-      </c>
-      <c r="N52" s="3">
-        <v>329.16</v>
-      </c>
-      <c r="O52" s="9">
-        <v>45703641</v>
-      </c>
-      <c r="P52" s="3">
-        <v>499.808</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>997173396</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B53" s="3">
-        <v>15.386</v>
-      </c>
-      <c r="C53" s="9">
-        <v>49965153</v>
-      </c>
-      <c r="D53" s="3">
-        <v>8.891</v>
-      </c>
-      <c r="E53" s="9">
-        <v>28774497</v>
-      </c>
-      <c r="F53" s="3">
-        <v>2.261</v>
-      </c>
-      <c r="G53" s="9">
-        <v>1989958</v>
-      </c>
-      <c r="H53" s="3">
-        <v>186.048</v>
-      </c>
-      <c r="I53" s="9">
-        <v>870174916</v>
-      </c>
-      <c r="J53" s="3">
-        <v>23.777</v>
-      </c>
-      <c r="K53" s="9">
-        <v>10667149</v>
-      </c>
-      <c r="L53" s="3">
-        <v>541.723</v>
-      </c>
-      <c r="M53" s="9">
-        <v>1259485940</v>
-      </c>
-      <c r="N53" s="3">
-        <v>265.185</v>
-      </c>
-      <c r="O53" s="9">
-        <v>46754083</v>
-      </c>
-      <c r="P53" s="3">
-        <v>323.368</v>
-      </c>
-      <c r="Q53" s="9">
-        <v>484393905</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="B54" s="3">
-        <v>17.682</v>
-      </c>
-      <c r="C54" s="9">
-        <v>58678630</v>
-      </c>
-      <c r="D54" s="3">
-        <v>13.567</v>
-      </c>
-      <c r="E54" s="9">
-        <v>34060778</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1.977</v>
-      </c>
-      <c r="G54" s="9">
-        <v>2260269</v>
-      </c>
-      <c r="H54" s="3">
-        <v>177.453</v>
-      </c>
-      <c r="I54" s="9">
-        <v>1027371282</v>
-      </c>
-      <c r="J54" s="3">
-        <v>24.702</v>
-      </c>
-      <c r="K54" s="9">
-        <v>12596328</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2436.55</v>
-      </c>
-      <c r="M54" s="9">
-        <v>1477856348</v>
-      </c>
-      <c r="N54" s="3">
-        <v>287.445</v>
-      </c>
-      <c r="O54" s="9">
-        <v>57879044</v>
-      </c>
-      <c r="P54" s="3">
-        <v>354.599</v>
-      </c>
-      <c r="Q54" s="9">
-        <v>569811453</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="4" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +4984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5088,7 +5037,7 @@
         <v>2891271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5141,7 +5090,7 @@
         <v>126529077</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -5194,7 +5143,7 @@
         <v>141362172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -5247,7 +5196,7 @@
         <v>143515707</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -5300,7 +5249,7 @@
         <v>5221539</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -5353,7 +5302,7 @@
         <v>410823</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -5406,7 +5355,7 @@
         <v>2115036981</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -5459,7 +5408,7 @@
         <v>16737753</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -5512,7 +5461,7 @@
         <v>67338180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -5565,7 +5514,7 @@
         <v>199285049763</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -5618,7 +5567,7 @@
         <v>8407782</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -5671,7 +5620,7 @@
         <v>209197863</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -5724,7 +5673,7 @@
         <v>439990809</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
@@ -5777,7 +5726,7 @@
         <v>214057482</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -5830,7 +5779,7 @@
         <v>304149126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -5883,7 +5832,7 @@
         <v>62615709</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:17" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
@@ -5936,7 +5885,7 @@
         <v>18073550424</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>170</v>
       </c>
@@ -5989,7 +5938,7 @@
         <v>27983368444857</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:17" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -6042,7 +5991,7 @@
         <v>770479983</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>188</v>
       </c>
@@ -6095,7 +6044,7 @@
         <v>843084102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:17" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
@@ -6148,7 +6097,7 @@
         <v>2584989</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
@@ -6201,7 +6150,7 @@
         <v>1653027</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>215</v>
       </c>
@@ -6254,7 +6203,7 @@
         <v>2715672</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:17" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>223</v>
       </c>
@@ -6307,7 +6256,7 @@
         <v>2981766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>232</v>
       </c>
@@ -6360,7 +6309,7 @@
         <v>2697855</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>241</v>
       </c>
@@ -6413,7 +6362,7 @@
         <v>2617554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>250</v>
       </c>
@@ -6466,7 +6415,7 @@
         <v>2619801</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>259</v>
       </c>
@@ -6519,7 +6468,7 @@
         <v>2752923</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>267</v>
       </c>
@@ -6572,7 +6521,7 @@
         <v>2979066</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:17" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>275</v>
       </c>
@@ -6625,7 +6574,7 @@
         <v>55375107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>284</v>
       </c>
@@ -6678,7 +6627,7 @@
         <v>47372241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>293</v>
       </c>
@@ -6731,7 +6680,7 @@
         <v>63016083</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>302</v>
       </c>
@@ -6784,7 +6733,7 @@
         <v>50902146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>311</v>
       </c>
@@ -6837,7 +6786,7 @@
         <v>45054363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>320</v>
       </c>
@@ -6890,7 +6839,7 @@
         <v>39614316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>328</v>
       </c>
@@ -6943,7 +6892,7 @@
         <v>40337997</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>336</v>
       </c>
@@ -6996,7 +6945,7 @@
         <v>56056512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
@@ -7049,7 +6998,7 @@
         <v>70406592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>353</v>
       </c>
@@ -7102,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>362</v>
       </c>
@@ -7155,7 +7104,7 @@
         <v>696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>370</v>
       </c>
@@ -7208,7 +7157,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>378</v>
       </c>
@@ -7261,7 +7210,7 @@
         <v>999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>387</v>
       </c>
@@ -7314,7 +7263,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>396</v>
       </c>
@@ -7367,7 +7316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>405</v>
       </c>
@@ -7420,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>414</v>
       </c>
@@ -7473,7 +7422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>423</v>
       </c>
@@ -7526,7 +7475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>430</v>
       </c>
@@ -7579,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>439</v>
       </c>
@@ -7632,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>448</v>
       </c>
@@ -7685,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>457</v>
       </c>
@@ -7738,7 +7687,7 @@
         <v>997173396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>466</v>
       </c>
@@ -7791,7 +7740,7 @@
         <v>484393905</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>475</v>
       </c>
@@ -7845,6 +7794,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/AllPatern/AllPatern.xlsx
+++ b/result/AllPatern/AllPatern.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtonghe/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E0B886-F00F-664A-B4B2-6AE4DA49FD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SMOG" sheetId="1" r:id="rId1"/>
-    <sheet name="rps" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="SMOG"/>
+    <sheet r:id="rId2" sheetId="2" name="rps"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="544">
   <si>
     <t>graph</t>
   </si>
@@ -1182,33 +1176,6 @@
   </si>
   <si>
     <t>6.25971ms</t>
-  </si>
-  <si>
-    <t>p2p-Gnutella09_adj.txt</t>
-  </si>
-  <si>
-    <t>6.57715ms</t>
-  </si>
-  <si>
-    <t>5.93306ms</t>
-  </si>
-  <si>
-    <t>5.8071ms</t>
-  </si>
-  <si>
-    <t>7.5223ms</t>
-  </si>
-  <si>
-    <t>7.13523ms</t>
-  </si>
-  <si>
-    <t>6.86797ms</t>
-  </si>
-  <si>
-    <t>7.56326ms</t>
-  </si>
-  <si>
-    <t>6.30886ms</t>
   </si>
   <si>
     <t>p2p-Gnutella24_adj.txt</t>
@@ -1685,27 +1652,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1735,41 +1696,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1780,10 +1744,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1821,71 +1785,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1913,7 +1877,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1936,11 +1900,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1949,13 +1913,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1965,7 +1929,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1974,7 +1938,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1983,7 +1947,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1991,10 +1955,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2059,2879 +2023,2876 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J35" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P53"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="Q1" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="B2" s="3">
+        <v>1.705</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2477087</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.099</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3110467</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.559</v>
+      </c>
+      <c r="G2" s="7">
+        <v>304441</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5.519</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4915256</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.758</v>
+      </c>
+      <c r="K2" s="7">
+        <v>67942</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10.476</v>
+      </c>
+      <c r="M2" s="7">
+        <v>6405886</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.292</v>
+      </c>
+      <c r="O2" s="7">
+        <v>6267</v>
+      </c>
+      <c r="P2" s="3">
+        <v>4.896</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2891271</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="B3" s="3">
+        <v>9.454</v>
+      </c>
+      <c r="C3" s="7">
+        <v>32229022</v>
+      </c>
+      <c r="D3" s="3">
+        <v>14.533</v>
+      </c>
+      <c r="E3" s="7">
+        <v>40921800</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.251</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3975712</v>
+      </c>
+      <c r="H3" s="3">
+        <v>28.337</v>
+      </c>
+      <c r="I3" s="7">
+        <v>202015989</v>
+      </c>
+      <c r="J3" s="3">
+        <v>9.886</v>
+      </c>
+      <c r="K3" s="7">
+        <v>3187886</v>
+      </c>
+      <c r="L3" s="3">
+        <v>130.647</v>
+      </c>
+      <c r="M3" s="7">
+        <v>249735343</v>
+      </c>
+      <c r="N3" s="3">
+        <v>7.728</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1920570</v>
+      </c>
+      <c r="P3" s="3">
+        <v>30.628</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>126529077</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2477087</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.0990000000000002</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3110467</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="G2" s="6">
-        <v>304441</v>
-      </c>
-      <c r="H2" s="7">
-        <v>5.5190000000000001</v>
-      </c>
-      <c r="I2" s="6">
-        <v>4915256</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.758</v>
-      </c>
-      <c r="K2" s="6">
-        <v>67942</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10.476000000000001</v>
-      </c>
-      <c r="M2" s="6">
-        <v>6405886</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1.292</v>
-      </c>
-      <c r="O2" s="6">
-        <v>6267</v>
-      </c>
-      <c r="P2" s="7">
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>2891271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9.4540000000000006</v>
-      </c>
-      <c r="C3" s="6">
-        <v>32229022</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14.532999999999999</v>
-      </c>
-      <c r="E3" s="6">
-        <v>40921800</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.2510000000000003</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3975712</v>
-      </c>
-      <c r="H3" s="7">
-        <v>28.337</v>
-      </c>
-      <c r="I3" s="6">
-        <v>202015989</v>
-      </c>
-      <c r="J3" s="7">
-        <v>9.8859999999999992</v>
-      </c>
-      <c r="K3" s="6">
-        <v>3187886</v>
-      </c>
-      <c r="L3" s="3">
-        <v>130.64699999999999</v>
-      </c>
-      <c r="M3" s="6">
-        <v>249735343</v>
-      </c>
-      <c r="N3" s="7">
-        <v>7.7279999999999998</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1920570</v>
-      </c>
-      <c r="P3" s="7">
-        <v>30.628</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>126529077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>503</v>
       </c>
       <c r="B4" s="3">
         <v>10.157</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>35492004</v>
       </c>
       <c r="D4" s="3">
-        <v>15.678000000000001</v>
-      </c>
-      <c r="E4" s="6">
+        <v>15.678</v>
+      </c>
+      <c r="E4" s="7">
         <v>45276121</v>
       </c>
       <c r="F4" s="3">
-        <v>6.7930000000000001</v>
-      </c>
-      <c r="G4" s="6">
+        <v>6.793</v>
+      </c>
+      <c r="G4" s="7">
         <v>4361282</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>57.186</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>229617605</v>
       </c>
-      <c r="J4" s="7">
-        <v>9.5239999999999991</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="J4" s="3">
+        <v>9.524</v>
+      </c>
+      <c r="K4" s="7">
         <v>3543622</v>
       </c>
       <c r="L4" s="3">
         <v>158.15</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>282891801</v>
       </c>
-      <c r="N4" s="7">
-        <v>10.755000000000001</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="N4" s="3">
+        <v>10.755</v>
+      </c>
+      <c r="O4" s="7">
         <v>2147049</v>
       </c>
-      <c r="P4" s="7">
-        <v>43.835000000000001</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="P4" s="3">
+        <v>43.835</v>
+      </c>
+      <c r="Q4" s="7">
         <v>141362172</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>504</v>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="6" t="s">
+        <v>495</v>
       </c>
       <c r="B5" s="3">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="C5" s="6">
+        <v>10.13</v>
+      </c>
+      <c r="C5" s="7">
         <v>35661461</v>
       </c>
       <c r="D5" s="3">
-        <v>15.901999999999999</v>
-      </c>
-      <c r="E5" s="6">
+        <v>15.902</v>
+      </c>
+      <c r="E5" s="7">
         <v>45701006</v>
       </c>
       <c r="F5" s="3">
-        <v>6.3959999999999999</v>
-      </c>
-      <c r="G5" s="6">
+        <v>6.396</v>
+      </c>
+      <c r="G5" s="7">
         <v>4420994</v>
       </c>
-      <c r="H5" s="7">
-        <v>54.311999999999998</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="H5" s="3">
+        <v>54.312</v>
+      </c>
+      <c r="I5" s="7">
         <v>232448240</v>
       </c>
-      <c r="J5" s="7">
-        <v>7.1820000000000004</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="J5" s="3">
+        <v>7.182</v>
+      </c>
+      <c r="K5" s="7">
         <v>3606466</v>
       </c>
       <c r="L5" s="3">
         <v>159.38</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>285794903</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="3">
         <v>11.654</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <v>2193997</v>
       </c>
-      <c r="P5" s="7">
-        <v>44.798000000000002</v>
-      </c>
-      <c r="Q5" s="6">
+      <c r="P5" s="3">
+        <v>44.798</v>
+      </c>
+      <c r="Q5" s="7">
         <v>143515707</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>505</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="B6" s="3">
         <v>0.217</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>288840</v>
       </c>
       <c r="D6" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="E6" s="6">
+        <v>0.328</v>
+      </c>
+      <c r="E6" s="7">
         <v>287940</v>
       </c>
       <c r="F6" s="3">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="G6" s="6">
+        <v>0.195</v>
+      </c>
+      <c r="G6" s="7">
         <v>5636</v>
       </c>
-      <c r="H6" s="7">
-        <v>4.3360000000000003</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="3">
+        <v>4.336</v>
+      </c>
+      <c r="I6" s="7">
         <v>1452941</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.52</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>5900</v>
       </c>
       <c r="L6" s="3">
         <v>112.559</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>1773657</v>
       </c>
-      <c r="N6" s="7">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="N6" s="3">
+        <v>1.108</v>
+      </c>
+      <c r="O6" s="7">
         <v>4779</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="3">
         <v>3.5</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="7">
         <v>410823</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>506</v>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+      <c r="A7" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="B7" s="3">
         <v>1.345</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>2287349</v>
       </c>
       <c r="D7" s="3">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="E7" s="6">
+        <v>0.846</v>
+      </c>
+      <c r="E7" s="7">
         <v>2042272</v>
       </c>
       <c r="F7" s="3">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="G7" s="6">
+        <v>0.514</v>
+      </c>
+      <c r="G7" s="7">
         <v>53875</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>12.118</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>16546241</v>
       </c>
-      <c r="J7" s="7">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="J7" s="3">
+        <v>1.945</v>
+      </c>
+      <c r="K7" s="7">
         <v>82231</v>
       </c>
       <c r="L7" s="3">
         <v>375.214</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>23868747</v>
       </c>
-      <c r="N7" s="7">
-        <v>7.8479999999999999</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="N7" s="3">
+        <v>7.848</v>
+      </c>
+      <c r="O7" s="7">
         <v>102147</v>
       </c>
-      <c r="P7" s="7">
-        <v>7.7119999999999997</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="P7" s="3">
+        <v>7.712</v>
+      </c>
+      <c r="Q7" s="7">
         <v>5221539</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>507</v>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+      <c r="A8" s="6" t="s">
+        <v>498</v>
       </c>
       <c r="B8" s="3">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="C8" s="6">
+        <v>3.626</v>
+      </c>
+      <c r="C8" s="7">
         <v>44916549</v>
       </c>
       <c r="D8" s="3">
-        <v>5.4770000000000003</v>
-      </c>
-      <c r="E8" s="6">
+        <v>5.477</v>
+      </c>
+      <c r="E8" s="7">
         <v>72355715</v>
       </c>
       <c r="F8" s="3">
         <v>2.234</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>9580415</v>
       </c>
-      <c r="H8" s="7">
-        <v>80.885000000000005</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="3">
+        <v>80.885</v>
+      </c>
+      <c r="I8" s="7">
         <v>2545573891</v>
       </c>
-      <c r="J8" s="7">
-        <v>23.324999999999999</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="J8" s="3">
+        <v>23.325</v>
+      </c>
+      <c r="K8" s="7">
         <v>64997961</v>
       </c>
       <c r="L8" s="3">
-        <v>249.38399999999999</v>
-      </c>
-      <c r="M8" s="6">
+        <v>249.384</v>
+      </c>
+      <c r="M8" s="7">
         <v>2732693146</v>
       </c>
-      <c r="N8" s="7">
-        <v>276.73200000000003</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="N8" s="3">
+        <v>276.732</v>
+      </c>
+      <c r="O8" s="7">
         <v>400401488</v>
       </c>
-      <c r="P8" s="7">
-        <v>71.353999999999999</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="P8" s="3">
+        <v>71.354</v>
+      </c>
+      <c r="Q8" s="7">
         <v>2115036981</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>508</v>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+      <c r="A9" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="B9" s="3">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="C9" s="6">
+        <v>0.483</v>
+      </c>
+      <c r="C9" s="7">
         <v>1505383</v>
       </c>
       <c r="D9" s="3">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E9" s="6">
+        <v>0.674</v>
+      </c>
+      <c r="E9" s="7">
         <v>2349650</v>
       </c>
       <c r="F9" s="3">
         <v>0.61</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>294008</v>
       </c>
-      <c r="H9" s="7">
-        <v>4.8789999999999996</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H9" s="3">
+        <v>4.879</v>
+      </c>
+      <c r="I9" s="7">
         <v>21403215</v>
       </c>
-      <c r="J9" s="7">
-        <v>3.1339999999999999</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="3">
+        <v>3.134</v>
+      </c>
+      <c r="K9" s="7">
         <v>511088</v>
       </c>
       <c r="L9" s="3">
-        <v>32.563000000000002</v>
-      </c>
-      <c r="M9" s="6">
+        <v>32.563</v>
+      </c>
+      <c r="M9" s="7">
         <v>23018710</v>
       </c>
-      <c r="N9" s="7">
-        <v>21.597000000000001</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="N9" s="3">
+        <v>21.597</v>
+      </c>
+      <c r="O9" s="7">
         <v>919604</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="3">
         <v>6.141</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7">
         <v>16737753</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>509</v>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+      <c r="A10" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="B10" s="3">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="C10" s="6">
+        <v>0.539</v>
+      </c>
+      <c r="C10" s="7">
         <v>1054723</v>
       </c>
       <c r="D10" s="3">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E10" s="6">
+        <v>0.662</v>
+      </c>
+      <c r="E10" s="7">
         <v>2041499</v>
       </c>
       <c r="F10" s="3">
         <v>1.413</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>329297</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>18.706</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>68885210</v>
       </c>
-      <c r="J10" s="7">
-        <v>16.172999999999998</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J10" s="3">
+        <v>16.173</v>
+      </c>
+      <c r="K10" s="7">
         <v>2215500</v>
       </c>
       <c r="L10" s="3">
-        <v>32.896000000000001</v>
-      </c>
-      <c r="M10" s="6">
+        <v>32.896</v>
+      </c>
+      <c r="M10" s="7">
         <v>69763367</v>
       </c>
-      <c r="N10" s="7">
-        <v>114.13200000000001</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="N10" s="3">
+        <v>114.132</v>
+      </c>
+      <c r="O10" s="7">
         <v>12898478</v>
       </c>
-      <c r="P10" s="7">
-        <v>23.045000000000002</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="P10" s="3">
+        <v>23.045</v>
+      </c>
+      <c r="Q10" s="7">
         <v>67338180</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>510</v>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+      <c r="A11" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="B11" s="3">
-        <v>19.117999999999999</v>
-      </c>
-      <c r="C11" s="6">
+        <v>19.118</v>
+      </c>
+      <c r="C11" s="7">
         <v>507961441</v>
       </c>
       <c r="D11" s="3">
         <v>23.055</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>976450063</v>
       </c>
       <c r="F11" s="3">
-        <v>10.771000000000001</v>
-      </c>
-      <c r="G11" s="6">
+        <v>10.771</v>
+      </c>
+      <c r="G11" s="7">
         <v>156497775</v>
       </c>
-      <c r="H11" s="7">
-        <v>2279.0500000000002</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="H11" s="3">
+        <v>2279.05</v>
+      </c>
+      <c r="I11" s="7">
         <v>204140424631</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>1079.01</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>6608523653</v>
       </c>
       <c r="L11" s="3">
         <v>5097.84</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <v>205227178026</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="3">
         <v>58196.4</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="7">
         <v>67967917219</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="3">
         <v>2022.72</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="7">
         <v>199285049763</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>511</v>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+      <c r="A12" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="B12" s="3">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="C12" s="6">
+        <v>0.264</v>
+      </c>
+      <c r="C12" s="7">
         <v>239081</v>
       </c>
       <c r="D12" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="E12" s="6">
+        <v>0.343</v>
+      </c>
+      <c r="E12" s="7">
         <v>429013</v>
       </c>
       <c r="F12" s="3">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="G12" s="6">
+        <v>0.814</v>
+      </c>
+      <c r="G12" s="7">
         <v>65592</v>
       </c>
-      <c r="H12" s="7">
-        <v>6.6269999999999998</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="3">
+        <v>6.627</v>
+      </c>
+      <c r="I12" s="7">
         <v>8479804</v>
       </c>
-      <c r="J12" s="7">
-        <v>4.1150000000000002</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="3">
+        <v>4.115</v>
+      </c>
+      <c r="K12" s="7">
         <v>279547</v>
       </c>
       <c r="L12" s="3">
         <v>11.004</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="7">
         <v>8518817</v>
       </c>
-      <c r="N12" s="7">
-        <v>32.682000000000002</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="N12" s="3">
+        <v>32.682</v>
+      </c>
+      <c r="O12" s="7">
         <v>1123584</v>
       </c>
-      <c r="P12" s="7">
-        <v>8.9710000000000001</v>
-      </c>
-      <c r="Q12" s="6">
+      <c r="P12" s="3">
+        <v>8.971</v>
+      </c>
+      <c r="Q12" s="7">
         <v>8407782</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>512</v>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+      <c r="A13" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="B13" s="3">
         <v>6.35</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>39015537</v>
       </c>
       <c r="D13" s="3">
         <v>6.556</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>36512540</v>
       </c>
       <c r="F13" s="3">
-        <v>2.4460000000000002</v>
-      </c>
-      <c r="G13" s="6">
+        <v>2.446</v>
+      </c>
+      <c r="G13" s="7">
         <v>2562245</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>404.93</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>429991999</v>
       </c>
-      <c r="J13" s="7">
-        <v>8.8810000000000002</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J13" s="3">
+        <v>8.881</v>
+      </c>
+      <c r="K13" s="7">
         <v>4262265</v>
       </c>
       <c r="L13" s="3">
         <v>508.291</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>647492608</v>
       </c>
-      <c r="N13" s="7">
-        <v>53.104999999999997</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="N13" s="3">
+        <v>53.105</v>
+      </c>
+      <c r="O13" s="7">
         <v>6262553</v>
       </c>
-      <c r="P13" s="7">
-        <v>99.022000000000006</v>
-      </c>
-      <c r="Q13" s="6">
+      <c r="P13" s="3">
+        <v>99.022</v>
+      </c>
+      <c r="Q13" s="7">
         <v>209197863</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>513</v>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
+      <c r="A14" s="6" t="s">
+        <v>504</v>
       </c>
       <c r="B14" s="3">
         <v>8.08</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>63698507</v>
       </c>
       <c r="D14" s="3">
-        <v>8.1349999999999998</v>
-      </c>
-      <c r="E14" s="6">
+        <v>8.135</v>
+      </c>
+      <c r="E14" s="7">
         <v>61934120</v>
       </c>
       <c r="F14" s="3">
-        <v>2.3730000000000002</v>
-      </c>
-      <c r="G14" s="6">
+        <v>2.373</v>
+      </c>
+      <c r="G14" s="7">
         <v>4113289</v>
       </c>
-      <c r="H14" s="7">
-        <v>93.051000000000002</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="H14" s="3">
+        <v>93.051</v>
+      </c>
+      <c r="I14" s="7">
         <v>967443899</v>
       </c>
-      <c r="J14" s="7">
-        <v>31.527000000000001</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="J14" s="3">
+        <v>31.527</v>
+      </c>
+      <c r="K14" s="7">
         <v>9380530</v>
       </c>
       <c r="L14" s="3">
         <v>3662.77</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <v>1386675032</v>
       </c>
-      <c r="N14" s="7">
-        <v>77.760999999999996</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="N14" s="3">
+        <v>77.761</v>
+      </c>
+      <c r="O14" s="7">
         <v>19927580</v>
       </c>
-      <c r="P14" s="7">
-        <v>60.017000000000003</v>
-      </c>
-      <c r="Q14" s="6">
+      <c r="P14" s="3">
+        <v>60.017</v>
+      </c>
+      <c r="Q14" s="7">
         <v>439990809</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>514</v>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
+      <c r="A15" s="6" t="s">
+        <v>505</v>
       </c>
       <c r="B15" s="3">
-        <v>76.149000000000001</v>
-      </c>
-      <c r="C15" s="6">
+        <v>76.149</v>
+      </c>
+      <c r="C15" s="7">
         <v>341906226</v>
       </c>
       <c r="D15" s="3">
-        <v>60.301000000000002</v>
-      </c>
-      <c r="E15" s="6">
+        <v>60.301</v>
+      </c>
+      <c r="E15" s="7">
         <v>83785566</v>
       </c>
       <c r="F15" s="3">
-        <v>18.542000000000002</v>
-      </c>
-      <c r="G15" s="6">
+        <v>18.542</v>
+      </c>
+      <c r="G15" s="7">
         <v>3501071</v>
       </c>
-      <c r="H15" s="7">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="H15" s="3">
+        <v>0.093</v>
+      </c>
+      <c r="I15" s="7">
         <v>446804010</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.04</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="7">
         <v>3039636</v>
       </c>
       <c r="L15" s="3">
-        <v>534.03499999999997</v>
-      </c>
-      <c r="M15" s="6">
+        <v>534.035</v>
+      </c>
+      <c r="M15" s="7">
         <v>1776150458</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="3">
         <v>0.04</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="7">
         <v>3151595</v>
       </c>
-      <c r="P15" s="7">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="Q15" s="6">
+      <c r="P15" s="3">
+        <v>0.097</v>
+      </c>
+      <c r="Q15" s="7">
         <v>214057482</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>515</v>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
+      <c r="A16" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="B16" s="3">
-        <v>5.3140000000000001</v>
-      </c>
-      <c r="C16" s="6">
+        <v>5.314</v>
+      </c>
+      <c r="C16" s="7">
         <v>36256665</v>
       </c>
       <c r="D16" s="3">
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="E16" s="6">
+        <v>4.475</v>
+      </c>
+      <c r="E16" s="7">
         <v>36528276</v>
       </c>
       <c r="F16" s="3">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="G16" s="6">
+        <v>1.108</v>
+      </c>
+      <c r="G16" s="7">
         <v>2341639</v>
       </c>
-      <c r="H16" s="7">
-        <v>173.79900000000001</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="H16" s="3">
+        <v>173.799</v>
+      </c>
+      <c r="I16" s="7">
         <v>720230791</v>
       </c>
-      <c r="J16" s="7">
-        <v>3.9510000000000001</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="J16" s="3">
+        <v>3.951</v>
+      </c>
+      <c r="K16" s="7">
         <v>5809356</v>
       </c>
       <c r="L16" s="3">
-        <v>338.50299999999999</v>
-      </c>
-      <c r="M16" s="6">
+        <v>338.503</v>
+      </c>
+      <c r="M16" s="7">
         <v>1018877581</v>
       </c>
-      <c r="N16" s="7">
-        <v>20.138999999999999</v>
-      </c>
-      <c r="O16" s="6">
+      <c r="N16" s="3">
+        <v>20.139</v>
+      </c>
+      <c r="O16" s="7">
         <v>11213163</v>
       </c>
-      <c r="P16" s="7">
-        <v>78.582999999999998</v>
-      </c>
-      <c r="Q16" s="6">
+      <c r="P16" s="3">
+        <v>78.583</v>
+      </c>
+      <c r="Q16" s="7">
         <v>303894917</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>516</v>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
+      <c r="A17" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="B17" s="3">
-        <v>7.8810000000000002</v>
-      </c>
-      <c r="C17" s="6">
+        <v>7.881</v>
+      </c>
+      <c r="C17" s="7">
         <v>17093921</v>
       </c>
       <c r="D17" s="3">
-        <v>3.4550000000000001</v>
-      </c>
-      <c r="E17" s="6">
+        <v>3.455</v>
+      </c>
+      <c r="E17" s="7">
         <v>12663071</v>
       </c>
       <c r="F17" s="3">
         <v>1.248</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>581032</v>
       </c>
-      <c r="H17" s="7">
-        <v>1131.6600000000001</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="H17" s="3">
+        <v>1131.66</v>
+      </c>
+      <c r="I17" s="7">
         <v>105766262</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="3">
         <v>11.045</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>1101520</v>
       </c>
       <c r="L17" s="3">
-        <v>583.88199999999995</v>
-      </c>
-      <c r="M17" s="6">
+        <v>583.882</v>
+      </c>
+      <c r="M17" s="7">
         <v>217531995</v>
       </c>
-      <c r="N17" s="7">
-        <v>34.234000000000002</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="N17" s="3">
+        <v>34.234</v>
+      </c>
+      <c r="O17" s="7">
         <v>1633335</v>
       </c>
-      <c r="P17" s="7">
-        <v>288.11700000000002</v>
-      </c>
-      <c r="Q17" s="6">
+      <c r="P17" s="3">
+        <v>288.117</v>
+      </c>
+      <c r="Q17" s="7">
         <v>34119119</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>517</v>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
+      <c r="A18" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="B18" s="3">
-        <v>8.5719999999999992</v>
-      </c>
-      <c r="C18" s="6">
+        <v>8.572</v>
+      </c>
+      <c r="C18" s="7">
         <v>144023053</v>
       </c>
       <c r="D18" s="3">
-        <v>7.9210000000000003</v>
-      </c>
-      <c r="E18" s="6">
+        <v>7.921</v>
+      </c>
+      <c r="E18" s="7">
         <v>228787050</v>
       </c>
       <c r="F18" s="3">
-        <v>3.7130000000000001</v>
-      </c>
-      <c r="G18" s="6">
+        <v>3.713</v>
+      </c>
+      <c r="G18" s="7">
         <v>30004668</v>
       </c>
-      <c r="H18" s="7">
-        <v>384.88900000000001</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="H18" s="3">
+        <v>384.889</v>
+      </c>
+      <c r="I18" s="7">
         <v>21763153227</v>
       </c>
-      <c r="J18" s="7">
-        <v>140.25299999999999</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="J18" s="3">
+        <v>140.253</v>
+      </c>
+      <c r="K18" s="7">
         <v>517965151</v>
       </c>
       <c r="L18" s="3">
-        <v>890.78499999999997</v>
-      </c>
-      <c r="M18" s="6">
+        <v>890.785</v>
+      </c>
+      <c r="M18" s="7">
         <v>25095227541</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="3">
         <v>2720.43</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="7">
         <v>7830937838</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="3">
         <v>333.041</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="7">
         <v>18073550424</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>518</v>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
+      <c r="A19" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="B19" s="3">
         <v>1124.78</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>23124971168</v>
       </c>
       <c r="D19" s="3">
-        <v>2067.4699999999998</v>
-      </c>
-      <c r="E19" s="6">
+        <v>2067.47</v>
+      </c>
+      <c r="E19" s="7">
         <v>37701640669</v>
       </c>
       <c r="F19" s="3">
-        <v>16.670999999999999</v>
-      </c>
-      <c r="G19" s="6">
+        <v>16.671</v>
+      </c>
+      <c r="G19" s="7">
         <v>47798166</v>
       </c>
-      <c r="H19" s="7">
-        <v>65799.199999999997</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="H19" s="3">
+        <v>65799.2</v>
+      </c>
+      <c r="I19" s="7">
         <v>31234180596</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6">
+      <c r="J19" s="2"/>
+      <c r="K19" s="7">
         <v>47798166</v>
       </c>
       <c r="L19" s="3">
         <v>1277.58</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>37701640669</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6">
+      <c r="N19" s="2"/>
+      <c r="O19" s="7">
         <v>47798166</v>
       </c>
-      <c r="P19" s="7">
-        <v>41826.300000000003</v>
-      </c>
-      <c r="Q19" s="6">
+      <c r="P19" s="3">
+        <v>41826.3</v>
+      </c>
+      <c r="Q19" s="7">
         <v>62468361192</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>519</v>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
+      <c r="A20" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="B20" s="3">
         <v>3.048</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>23380701</v>
       </c>
       <c r="D20" s="3">
         <v>3.31</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>29261679</v>
       </c>
       <c r="F20" s="3">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="G20" s="6">
+        <v>1.114</v>
+      </c>
+      <c r="G20" s="7">
         <v>2851308</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>106.017</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="7">
         <v>1141663792</v>
       </c>
-      <c r="J20" s="7">
-        <v>17.975999999999999</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="J20" s="3">
+        <v>17.976</v>
+      </c>
+      <c r="K20" s="7">
         <v>19481391</v>
       </c>
       <c r="L20" s="3">
         <v>340.541</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="7">
         <v>1412668691</v>
       </c>
-      <c r="N20" s="7">
-        <v>191.01300000000001</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="N20" s="3">
+        <v>191.013</v>
+      </c>
+      <c r="O20" s="7">
         <v>117409296</v>
       </c>
-      <c r="P20" s="7">
-        <v>90.402000000000001</v>
-      </c>
-      <c r="Q20" s="6">
+      <c r="P20" s="3">
+        <v>90.402</v>
+      </c>
+      <c r="Q20" s="7">
         <v>770479983</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>520</v>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
+      <c r="A21" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="B21" s="3">
-        <v>22.013999999999999</v>
-      </c>
-      <c r="C21" s="6">
+        <v>22.014</v>
+      </c>
+      <c r="C21" s="7">
         <v>146652712</v>
       </c>
       <c r="D21" s="3">
         <v>24.08</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>122513526</v>
       </c>
       <c r="F21" s="3">
-        <v>4.0679999999999996</v>
-      </c>
-      <c r="G21" s="6">
+        <v>4.068</v>
+      </c>
+      <c r="G21" s="7">
         <v>6086852</v>
       </c>
-      <c r="H21" s="7">
-        <v>337.86900000000003</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="H21" s="3">
+        <v>337.869</v>
+      </c>
+      <c r="I21" s="7">
         <v>2385052206</v>
       </c>
-      <c r="J21" s="7">
-        <v>11.827999999999999</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="J21" s="3">
+        <v>11.828</v>
+      </c>
+      <c r="K21" s="7">
         <v>14570875</v>
       </c>
       <c r="L21" s="3">
         <v>2861.6</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="7">
         <v>3649782390</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="3">
         <v>49.9</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="7">
         <v>28928240</v>
       </c>
-      <c r="P21" s="7">
-        <v>118.70399999999999</v>
-      </c>
-      <c r="Q21" s="6">
+      <c r="P21" s="3">
+        <v>118.704</v>
+      </c>
+      <c r="Q21" s="7">
         <v>843084102</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>521</v>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="6" t="s">
+        <v>512</v>
       </c>
       <c r="B22" s="3">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="C22" s="6">
+        <v>0.456</v>
+      </c>
+      <c r="C22" s="7">
         <v>882711</v>
       </c>
       <c r="D22" s="3">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="E22" s="6">
+        <v>0.571</v>
+      </c>
+      <c r="E22" s="7">
         <v>903673</v>
       </c>
       <c r="F22" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="G22" s="6">
+        <v>0.329</v>
+      </c>
+      <c r="G22" s="7">
         <v>26610</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>12.73</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="7">
         <v>7201602</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>1.694</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="7">
         <v>48224</v>
       </c>
       <c r="L22" s="3">
-        <v>271.82400000000001</v>
-      </c>
-      <c r="M22" s="6">
+        <v>271.824</v>
+      </c>
+      <c r="M22" s="7">
         <v>8920546</v>
       </c>
-      <c r="N22" s="7">
-        <v>7.4850000000000003</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="N22" s="3">
+        <v>7.485</v>
+      </c>
+      <c r="O22" s="7">
         <v>74010</v>
       </c>
-      <c r="P22" s="7">
-        <v>7.9169999999999998</v>
-      </c>
-      <c r="Q22" s="6">
+      <c r="P22" s="3">
+        <v>7.917</v>
+      </c>
+      <c r="Q22" s="7">
         <v>2584989</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>522</v>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="6" t="s">
+        <v>513</v>
       </c>
       <c r="B23" s="3">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="C23" s="6">
+        <v>0.418</v>
+      </c>
+      <c r="C23" s="7">
         <v>862089</v>
       </c>
       <c r="D23" s="3">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E23" s="6">
+        <v>0.429</v>
+      </c>
+      <c r="E23" s="7">
         <v>856275</v>
       </c>
       <c r="F23" s="3">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G23" s="6">
+        <v>0.364</v>
+      </c>
+      <c r="G23" s="7">
         <v>19339</v>
       </c>
-      <c r="H23" s="7">
-        <v>9.6329999999999991</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="H23" s="3">
+        <v>9.633</v>
+      </c>
+      <c r="I23" s="7">
         <v>5631882</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="3">
         <v>1.393</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="7">
         <v>25558</v>
       </c>
       <c r="L23" s="3">
-        <v>280.31900000000002</v>
-      </c>
-      <c r="M23" s="6">
+        <v>280.319</v>
+      </c>
+      <c r="M23" s="7">
         <v>7079906</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <v>4.274</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="7">
         <v>27610</v>
       </c>
-      <c r="P23" s="7">
-        <v>5.8079999999999998</v>
-      </c>
-      <c r="Q23" s="6">
+      <c r="P23" s="3">
+        <v>5.808</v>
+      </c>
+      <c r="Q23" s="7">
         <v>1653027</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>523</v>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="B24" s="3">
         <v>0.496</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>1047953</v>
       </c>
       <c r="D24" s="3">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="E24" s="6">
+        <v>0.493</v>
+      </c>
+      <c r="E24" s="7">
         <v>1062429</v>
       </c>
       <c r="F24" s="3">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="G24" s="6">
+        <v>0.414</v>
+      </c>
+      <c r="G24" s="7">
         <v>27135</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>15.63</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="7">
         <v>8464828</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="3">
         <v>2.214</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="7">
         <v>43369</v>
       </c>
       <c r="L24" s="3">
-        <v>277.96600000000001</v>
-      </c>
-      <c r="M24" s="6">
+        <v>277.966</v>
+      </c>
+      <c r="M24" s="7">
         <v>10585976</v>
       </c>
-      <c r="N24" s="7">
-        <v>5.6779999999999999</v>
-      </c>
-      <c r="O24" s="6">
+      <c r="N24" s="3">
+        <v>5.678</v>
+      </c>
+      <c r="O24" s="7">
         <v>58353</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="3">
         <v>7.64</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="7">
         <v>2715672</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>524</v>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="6" t="s">
+        <v>515</v>
       </c>
       <c r="B25" s="3">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="C25" s="6">
+        <v>0.478</v>
+      </c>
+      <c r="C25" s="7">
         <v>1086538</v>
       </c>
       <c r="D25" s="3">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="E25" s="6">
+        <v>0.455</v>
+      </c>
+      <c r="E25" s="7">
         <v>1104592</v>
       </c>
       <c r="F25" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G25" s="6">
+        <v>0.326</v>
+      </c>
+      <c r="G25" s="7">
         <v>29766</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="3">
         <v>10.087</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="7">
         <v>9095735</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="3">
         <v>1.008</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="7">
         <v>48256</v>
       </c>
       <c r="L25" s="3">
         <v>275.36</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="7">
         <v>11473075</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="3">
         <v>3.399</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="7">
         <v>63557</v>
       </c>
-      <c r="P25" s="7">
-        <v>5.8929999999999998</v>
-      </c>
-      <c r="Q25" s="6">
+      <c r="P25" s="3">
+        <v>5.893</v>
+      </c>
+      <c r="Q25" s="7">
         <v>2981766</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>525</v>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="B26" s="3">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="C26" s="6">
+        <v>0.596</v>
+      </c>
+      <c r="C26" s="7">
         <v>1039416</v>
       </c>
       <c r="D26" s="3">
         <v>0.751</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>1056059</v>
       </c>
       <c r="F26" s="3">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="G26" s="6">
+        <v>0.447</v>
+      </c>
+      <c r="G26" s="7">
         <v>26461</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>16.183</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="7">
         <v>8426215</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="3">
         <v>1.601</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="7">
         <v>43111</v>
       </c>
       <c r="L26" s="3">
-        <v>282.20400000000001</v>
-      </c>
-      <c r="M26" s="6">
+        <v>282.204</v>
+      </c>
+      <c r="M26" s="7">
         <v>10532050</v>
       </c>
-      <c r="N26" s="7">
-        <v>5.4359999999999999</v>
-      </c>
-      <c r="O26" s="6">
+      <c r="N26" s="3">
+        <v>5.436</v>
+      </c>
+      <c r="O26" s="7">
         <v>57397</v>
       </c>
-      <c r="P26" s="7">
-        <v>9.1460000000000008</v>
-      </c>
-      <c r="Q26" s="6">
+      <c r="P26" s="3">
+        <v>9.146</v>
+      </c>
+      <c r="Q26" s="7">
         <v>2697855</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>526</v>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="B27" s="3">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="C27" s="6">
+        <v>0.569</v>
+      </c>
+      <c r="C27" s="7">
         <v>1029499</v>
       </c>
       <c r="D27" s="3">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="E27" s="6">
+        <v>0.514</v>
+      </c>
+      <c r="E27" s="7">
         <v>1044752</v>
       </c>
       <c r="F27" s="3">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G27" s="6">
+        <v>0.297</v>
+      </c>
+      <c r="G27" s="7">
         <v>26032</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="3">
         <v>12.759</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="7">
         <v>8190827</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="3">
         <v>1.349</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="7">
         <v>41425</v>
       </c>
       <c r="L27" s="3">
-        <v>272.28199999999998</v>
-      </c>
-      <c r="M27" s="6">
+        <v>272.282</v>
+      </c>
+      <c r="M27" s="7">
         <v>10266580</v>
       </c>
-      <c r="N27" s="7">
-        <v>3.4969999999999999</v>
-      </c>
-      <c r="O27" s="6">
+      <c r="N27" s="3">
+        <v>3.497</v>
+      </c>
+      <c r="O27" s="7">
         <v>53748</v>
       </c>
-      <c r="P27" s="7">
-        <v>7.9610000000000003</v>
-      </c>
-      <c r="Q27" s="6">
+      <c r="P27" s="3">
+        <v>7.961</v>
+      </c>
+      <c r="Q27" s="7">
         <v>2617554</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>527</v>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="B28" s="3">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="C28" s="6">
+        <v>0.485</v>
+      </c>
+      <c r="C28" s="7">
         <v>1029394</v>
       </c>
       <c r="D28" s="3">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="E28" s="6">
+        <v>0.515</v>
+      </c>
+      <c r="E28" s="7">
         <v>1044280</v>
       </c>
       <c r="F28" s="3">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="G28" s="6">
+        <v>0.449</v>
+      </c>
+      <c r="G28" s="7">
         <v>26021</v>
       </c>
-      <c r="H28" s="7">
-        <v>9.7409999999999997</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="H28" s="3">
+        <v>9.741</v>
+      </c>
+      <c r="I28" s="7">
         <v>8167375</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="3">
         <v>1.698</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="7">
         <v>42024</v>
       </c>
       <c r="L28" s="3">
-        <v>269.10000000000002</v>
-      </c>
-      <c r="M28" s="6">
+        <v>269.1</v>
+      </c>
+      <c r="M28" s="7">
         <v>10227080</v>
       </c>
-      <c r="N28" s="7">
-        <v>5.6260000000000003</v>
-      </c>
-      <c r="O28" s="6">
+      <c r="N28" s="3">
+        <v>5.626</v>
+      </c>
+      <c r="O28" s="7">
         <v>56363</v>
       </c>
-      <c r="P28" s="7">
-        <v>5.7839999999999998</v>
-      </c>
-      <c r="Q28" s="6">
+      <c r="P28" s="3">
+        <v>5.784</v>
+      </c>
+      <c r="Q28" s="7">
         <v>2619801</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>528</v>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="6" t="s">
+        <v>519</v>
       </c>
       <c r="B29" s="3">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="C29" s="6">
+        <v>0.506</v>
+      </c>
+      <c r="C29" s="7">
         <v>1036037</v>
       </c>
       <c r="D29" s="3">
         <v>0.499</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>1053528</v>
       </c>
       <c r="F29" s="3">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="G29" s="6">
+        <v>0.393</v>
+      </c>
+      <c r="G29" s="7">
         <v>26855</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="3">
         <v>15.404</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="7">
         <v>8422989</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="3">
         <v>1.643</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="7">
         <v>45008</v>
       </c>
       <c r="L29" s="3">
-        <v>275.33100000000002</v>
-      </c>
-      <c r="M29" s="6">
+        <v>275.331</v>
+      </c>
+      <c r="M29" s="7">
         <v>10522786</v>
       </c>
-      <c r="N29" s="7">
-        <v>4.5810000000000004</v>
-      </c>
-      <c r="O29" s="6">
+      <c r="N29" s="3">
+        <v>4.581</v>
+      </c>
+      <c r="O29" s="7">
         <v>62383</v>
       </c>
-      <c r="P29" s="7">
-        <v>7.5330000000000004</v>
-      </c>
-      <c r="Q29" s="6">
+      <c r="P29" s="3">
+        <v>7.533</v>
+      </c>
+      <c r="Q29" s="7">
         <v>2752923</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>529</v>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="6" t="s">
+        <v>520</v>
       </c>
       <c r="B30" s="3">
         <v>0.504</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>1127118</v>
       </c>
       <c r="D30" s="3">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="E30" s="6">
+        <v>0.494</v>
+      </c>
+      <c r="E30" s="7">
         <v>1143939</v>
       </c>
       <c r="F30" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G30" s="6">
+        <v>0.333</v>
+      </c>
+      <c r="G30" s="7">
         <v>30479</v>
       </c>
-      <c r="H30" s="7">
-        <v>15.055999999999999</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="H30" s="3">
+        <v>15.056</v>
+      </c>
+      <c r="I30" s="7">
         <v>9287382</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="3">
         <v>1.33</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="7">
         <v>46025</v>
       </c>
       <c r="L30" s="3">
-        <v>282.76600000000002</v>
-      </c>
-      <c r="M30" s="6">
+        <v>282.766</v>
+      </c>
+      <c r="M30" s="7">
         <v>11810065</v>
       </c>
-      <c r="N30" s="7">
-        <v>3.9569999999999999</v>
-      </c>
-      <c r="O30" s="6">
+      <c r="N30" s="3">
+        <v>3.957</v>
+      </c>
+      <c r="O30" s="7">
         <v>54635</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="3">
         <v>7.84</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="7">
         <v>2979066</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>530</v>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="B31" s="3">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C31" s="6">
+        <v>0.915</v>
+      </c>
+      <c r="C31" s="7">
         <v>3864085</v>
       </c>
       <c r="D31" s="3">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E31" s="6">
+        <v>0.836</v>
+      </c>
+      <c r="E31" s="7">
         <v>4534433</v>
       </c>
       <c r="F31" s="3">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="G31" s="6">
+        <v>0.644</v>
+      </c>
+      <c r="G31" s="7">
         <v>346110</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="3">
         <v>18.041</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="7">
         <v>96857189</v>
       </c>
-      <c r="J31" s="7">
-        <v>5.6719999999999997</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="J31" s="3">
+        <v>5.672</v>
+      </c>
+      <c r="K31" s="7">
         <v>1225487</v>
       </c>
       <c r="L31" s="3">
-        <v>280.94799999999998</v>
-      </c>
-      <c r="M31" s="6">
+        <v>280.948</v>
+      </c>
+      <c r="M31" s="7">
         <v>128199789</v>
       </c>
-      <c r="N31" s="7">
-        <v>32.164999999999999</v>
-      </c>
-      <c r="O31" s="6">
+      <c r="N31" s="3">
+        <v>32.165</v>
+      </c>
+      <c r="O31" s="7">
         <v>3486756</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="3">
         <v>15.465</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="7">
         <v>55375107</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A32" t="s">
-        <v>531</v>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="6" t="s">
+        <v>522</v>
       </c>
       <c r="B32" s="3">
         <v>1.415</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>3676432</v>
       </c>
       <c r="D32" s="3">
         <v>1.33</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>4274174</v>
       </c>
       <c r="F32" s="3">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G32" s="6">
+        <v>0.918</v>
+      </c>
+      <c r="G32" s="7">
         <v>310832</v>
       </c>
-      <c r="H32" s="7">
-        <v>25.202999999999999</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="H32" s="3">
+        <v>25.203</v>
+      </c>
+      <c r="I32" s="7">
         <v>86547287</v>
       </c>
-      <c r="J32" s="7">
-        <v>4.5529999999999999</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="J32" s="3">
+        <v>4.553</v>
+      </c>
+      <c r="K32" s="7">
         <v>1018894</v>
       </c>
       <c r="L32" s="3">
-        <v>282.12599999999998</v>
-      </c>
-      <c r="M32" s="6">
+        <v>282.126</v>
+      </c>
+      <c r="M32" s="7">
         <v>114316252</v>
       </c>
-      <c r="N32" s="7">
-        <v>25.332999999999998</v>
-      </c>
-      <c r="O32" s="6">
+      <c r="N32" s="3">
+        <v>25.333</v>
+      </c>
+      <c r="O32" s="7">
         <v>2589878</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="3">
         <v>15.724</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="7">
         <v>47372241</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A33" t="s">
-        <v>532</v>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="6" t="s">
+        <v>523</v>
       </c>
       <c r="B33" s="3">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="C33" s="6">
+        <v>0.949</v>
+      </c>
+      <c r="C33" s="7">
         <v>4395393</v>
       </c>
       <c r="D33" s="3">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="E33" s="6">
+        <v>0.724</v>
+      </c>
+      <c r="E33" s="7">
         <v>5168925</v>
       </c>
       <c r="F33" s="3">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="G33" s="6">
+        <v>0.548</v>
+      </c>
+      <c r="G33" s="7">
         <v>384812</v>
       </c>
-      <c r="H33" s="7">
-        <v>19.946000000000002</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="H33" s="3">
+        <v>19.946</v>
+      </c>
+      <c r="I33" s="7">
         <v>114632553</v>
       </c>
-      <c r="J33" s="7">
-        <v>3.3530000000000002</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="J33" s="3">
+        <v>3.353</v>
+      </c>
+      <c r="K33" s="7">
         <v>1357613</v>
       </c>
       <c r="L33" s="3">
         <v>281.642</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="7">
         <v>150875771</v>
       </c>
-      <c r="N33" s="7">
-        <v>21.751000000000001</v>
-      </c>
-      <c r="O33" s="6">
+      <c r="N33" s="3">
+        <v>21.751</v>
+      </c>
+      <c r="O33" s="7">
         <v>3732350</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="3">
         <v>11.779</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="7">
         <v>63016083</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A34" t="s">
-        <v>533</v>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="B34" s="3">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="C34" s="6">
+        <v>0.864</v>
+      </c>
+      <c r="C34" s="7">
         <v>4034908</v>
       </c>
       <c r="D34" s="3">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="E34" s="6">
+        <v>0.765</v>
+      </c>
+      <c r="E34" s="7">
         <v>4669252</v>
       </c>
       <c r="F34" s="3">
         <v>0.749</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="7">
         <v>328075</v>
       </c>
-      <c r="H34" s="7">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="H34" s="3">
+        <v>19.01</v>
+      </c>
+      <c r="I34" s="7">
         <v>96542004</v>
       </c>
-      <c r="J34" s="7">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="J34" s="3">
+        <v>3.015</v>
+      </c>
+      <c r="K34" s="7">
         <v>1057622</v>
       </c>
       <c r="L34" s="3">
-        <v>281.46499999999997</v>
-      </c>
-      <c r="M34" s="6">
+        <v>281.465</v>
+      </c>
+      <c r="M34" s="7">
         <v>127655123</v>
       </c>
-      <c r="N34" s="7">
-        <v>15.361000000000001</v>
-      </c>
-      <c r="O34" s="6">
+      <c r="N34" s="3">
+        <v>15.361</v>
+      </c>
+      <c r="O34" s="7">
         <v>2612910</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="3">
         <v>10.228</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="7">
         <v>50902146</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A35" t="s">
-        <v>534</v>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="B35" s="3">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="C35" s="6">
+        <v>0.777</v>
+      </c>
+      <c r="C35" s="7">
         <v>3850923</v>
       </c>
       <c r="D35" s="3">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="E35" s="6">
+        <v>0.683</v>
+      </c>
+      <c r="E35" s="7">
         <v>4393556</v>
       </c>
       <c r="F35" s="3">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="G35" s="6">
+        <v>0.718</v>
+      </c>
+      <c r="G35" s="7">
         <v>296111</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="3">
         <v>19.009</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="7">
         <v>87226143</v>
       </c>
-      <c r="J35" s="7">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="K35" s="6">
+      <c r="J35" s="3">
+        <v>3.761</v>
+      </c>
+      <c r="K35" s="7">
         <v>914846</v>
       </c>
       <c r="L35" s="3">
-        <v>284.47300000000001</v>
-      </c>
-      <c r="M35" s="6">
+        <v>284.473</v>
+      </c>
+      <c r="M35" s="7">
         <v>116021694</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="3">
         <v>13.97</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="7">
         <v>2184648</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="3">
         <v>10.222</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="7">
         <v>45054363</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A36" t="s">
-        <v>535</v>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21.75">
+      <c r="A36" s="6" t="s">
+        <v>526</v>
       </c>
       <c r="B36" s="3">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="C36" s="6">
+        <v>0.936</v>
+      </c>
+      <c r="C36" s="7">
         <v>3515244</v>
       </c>
       <c r="D36" s="3">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E36" s="6">
+        <v>0.888</v>
+      </c>
+      <c r="E36" s="7">
         <v>3997732</v>
       </c>
       <c r="F36" s="3">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="G36" s="6">
+        <v>0.606</v>
+      </c>
+      <c r="G36" s="7">
         <v>265128</v>
       </c>
-      <c r="H36" s="7">
-        <v>22.797000000000001</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="H36" s="3">
+        <v>22.797</v>
+      </c>
+      <c r="I36" s="7">
         <v>76793351</v>
       </c>
-      <c r="J36" s="7">
-        <v>3.5680000000000001</v>
-      </c>
-      <c r="K36" s="6">
+      <c r="J36" s="3">
+        <v>3.568</v>
+      </c>
+      <c r="K36" s="7">
         <v>803624</v>
       </c>
       <c r="L36" s="3">
-        <v>281.62700000000001</v>
-      </c>
-      <c r="M36" s="6">
+        <v>281.627</v>
+      </c>
+      <c r="M36" s="7">
         <v>101907997</v>
       </c>
-      <c r="N36" s="7">
-        <v>19.652000000000001</v>
-      </c>
-      <c r="O36" s="6">
+      <c r="N36" s="3">
+        <v>19.652</v>
+      </c>
+      <c r="O36" s="7">
         <v>1886911</v>
       </c>
-      <c r="P36" s="7">
-        <v>12.045999999999999</v>
-      </c>
-      <c r="Q36" s="6">
+      <c r="P36" s="3">
+        <v>12.046</v>
+      </c>
+      <c r="Q36" s="7">
         <v>39614316</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A37" t="s">
-        <v>536</v>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21.75">
+      <c r="A37" s="6" t="s">
+        <v>527</v>
       </c>
       <c r="B37" s="3">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="C37" s="6">
+        <v>0.809</v>
+      </c>
+      <c r="C37" s="7">
         <v>3563170</v>
       </c>
       <c r="D37" s="3">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E37" s="6">
+        <v>0.688</v>
+      </c>
+      <c r="E37" s="7">
         <v>4054385</v>
       </c>
       <c r="F37" s="3">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="G37" s="6">
+        <v>0.489</v>
+      </c>
+      <c r="G37" s="7">
         <v>267660</v>
       </c>
-      <c r="H37" s="7">
-        <v>27.716999999999999</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="H37" s="3">
+        <v>27.717</v>
+      </c>
+      <c r="I37" s="7">
         <v>78501518</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="3">
         <v>3.419</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="7">
         <v>819849</v>
       </c>
       <c r="L37" s="3">
-        <v>277.25299999999999</v>
-      </c>
-      <c r="M37" s="6">
+        <v>277.253</v>
+      </c>
+      <c r="M37" s="7">
         <v>103741974</v>
       </c>
-      <c r="N37" s="7">
-        <v>22.013000000000002</v>
-      </c>
-      <c r="O37" s="6">
+      <c r="N37" s="3">
+        <v>22.013</v>
+      </c>
+      <c r="O37" s="7">
         <v>1964260</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="3">
         <v>14.298</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="7">
         <v>40337997</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A38" t="s">
-        <v>537</v>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21.75">
+      <c r="A38" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="B38" s="3">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="C38" s="6">
+        <v>0.975</v>
+      </c>
+      <c r="C38" s="7">
         <v>4260328</v>
       </c>
       <c r="D38" s="3">
         <v>1.056</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>4940921</v>
       </c>
       <c r="F38" s="3">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="G38" s="6">
+        <v>0.795</v>
+      </c>
+      <c r="G38" s="7">
         <v>343439</v>
       </c>
-      <c r="H38" s="7">
-        <v>35.722000000000001</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="H38" s="3">
+        <v>35.722</v>
+      </c>
+      <c r="I38" s="7">
         <v>106661610</v>
       </c>
-      <c r="J38" s="7">
-        <v>4.4329999999999998</v>
-      </c>
-      <c r="K38" s="6">
+      <c r="J38" s="3">
+        <v>4.433</v>
+      </c>
+      <c r="K38" s="7">
         <v>1170508</v>
       </c>
       <c r="L38" s="3">
-        <v>287.39699999999999</v>
-      </c>
-      <c r="M38" s="6">
+        <v>287.397</v>
+      </c>
+      <c r="M38" s="7">
         <v>139293097</v>
       </c>
-      <c r="N38" s="7">
-        <v>20.754000000000001</v>
-      </c>
-      <c r="O38" s="6">
+      <c r="N38" s="3">
+        <v>20.754</v>
+      </c>
+      <c r="O38" s="7">
         <v>3140226</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="3">
         <v>14.789</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="7">
         <v>56056512</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A39" t="s">
-        <v>538</v>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
+      <c r="A39" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="B39" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="C39" s="6">
+        <v>1.001</v>
+      </c>
+      <c r="C39" s="7">
         <v>4682574</v>
       </c>
       <c r="D39" s="3">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="E39" s="6">
+        <v>0.744</v>
+      </c>
+      <c r="E39" s="7">
         <v>5550489</v>
       </c>
       <c r="F39" s="3">
         <v>0.873</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>399013</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="3">
         <v>20.169</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="7">
         <v>130655968</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="3">
         <v>5.883</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="7">
         <v>1500920</v>
       </c>
       <c r="L39" s="3">
-        <v>297.82100000000003</v>
-      </c>
-      <c r="M39" s="6">
+        <v>297.821</v>
+      </c>
+      <c r="M39" s="7">
         <v>167586606</v>
       </c>
-      <c r="N39" s="7">
-        <v>36.048000000000002</v>
-      </c>
-      <c r="O39" s="6">
+      <c r="N39" s="3">
+        <v>36.048</v>
+      </c>
+      <c r="O39" s="7">
         <v>4496036</v>
       </c>
-      <c r="P39" s="7">
-        <v>16.085000000000001</v>
-      </c>
-      <c r="Q39" s="6">
+      <c r="P39" s="3">
+        <v>16.085</v>
+      </c>
+      <c r="Q39" s="7">
         <v>70406592</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A40" t="s">
-        <v>539</v>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21.75">
+      <c r="A40" s="6" t="s">
+        <v>530</v>
       </c>
       <c r="B40" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="C40" s="6">
+        <v>0.332</v>
+      </c>
+      <c r="C40" s="7">
         <v>28497</v>
       </c>
       <c r="D40" s="3">
         <v>0.115</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="7">
         <v>750</v>
       </c>
       <c r="F40" s="3">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G40" s="6">
+        <v>0.068</v>
+      </c>
+      <c r="G40" s="7">
         <v>3</v>
       </c>
-      <c r="H40" s="7">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="H40" s="3">
+        <v>0.139</v>
+      </c>
+      <c r="I40" s="7">
         <v>6</v>
       </c>
-      <c r="J40" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="K40" s="6">
+      <c r="J40" s="3">
+        <v>0.086</v>
+      </c>
+      <c r="K40" s="7">
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="M40" s="6">
+        <v>0.276</v>
+      </c>
+      <c r="M40" s="7">
         <v>1695</v>
       </c>
-      <c r="N40" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="O40" s="6">
+      <c r="N40" s="3">
+        <v>0.078</v>
+      </c>
+      <c r="O40" s="7">
         <v>0</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="3">
         <v>0.12</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A41" t="s">
-        <v>540</v>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21.75">
+      <c r="A41" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B41" s="3">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="C41" s="6">
+        <v>0.195</v>
+      </c>
+      <c r="C41" s="7">
         <v>64998</v>
       </c>
       <c r="D41" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E41" s="6">
+        <v>0.095</v>
+      </c>
+      <c r="E41" s="7">
         <v>4928</v>
       </c>
       <c r="F41" s="3">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G41" s="6">
+        <v>0.049</v>
+      </c>
+      <c r="G41" s="7">
         <v>55</v>
       </c>
-      <c r="H41" s="7">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="H41" s="3">
+        <v>0.227</v>
+      </c>
+      <c r="I41" s="7">
         <v>3237</v>
       </c>
-      <c r="J41" s="7">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="J41" s="3">
+        <v>0.073</v>
+      </c>
+      <c r="K41" s="7">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>1.8380000000000001</v>
-      </c>
-      <c r="M41" s="6">
+        <v>1.838</v>
+      </c>
+      <c r="M41" s="7">
         <v>22537</v>
       </c>
-      <c r="N41" s="7">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O41" s="6">
+      <c r="N41" s="3">
+        <v>0.065</v>
+      </c>
+      <c r="O41" s="7">
         <v>0</v>
       </c>
-      <c r="P41" s="7">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="Q41" s="6">
+      <c r="P41" s="3">
+        <v>0.208</v>
+      </c>
+      <c r="Q41" s="7">
         <v>696</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A42" t="s">
-        <v>541</v>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21.75">
+      <c r="A42" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="B42" s="3">
         <v>0.193</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>90764</v>
       </c>
       <c r="D42" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E42" s="6">
+        <v>0.119</v>
+      </c>
+      <c r="E42" s="7">
         <v>8477</v>
       </c>
       <c r="F42" s="3">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G42" s="6">
+        <v>0.062</v>
+      </c>
+      <c r="G42" s="7">
         <v>45</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="3">
         <v>0.311</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="7">
         <v>2788</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="3">
         <v>0.08</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="7">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="M42" s="6">
+        <v>2.345</v>
+      </c>
+      <c r="M42" s="7">
         <v>65486</v>
       </c>
-      <c r="N42" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="O42" s="6">
+      <c r="N42" s="3">
+        <v>0.086</v>
+      </c>
+      <c r="O42" s="7">
         <v>0</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="3">
         <v>0.24</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="7">
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A43" t="s">
-        <v>542</v>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21.75">
+      <c r="A43" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="B43" s="3">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C43" s="6">
+        <v>0.229</v>
+      </c>
+      <c r="C43" s="7">
         <v>87885</v>
       </c>
       <c r="D43" s="3">
         <v>0.09</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="7">
         <v>15822</v>
       </c>
       <c r="F43" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G43" s="6">
+        <v>0.067</v>
+      </c>
+      <c r="G43" s="7">
         <v>175</v>
       </c>
-      <c r="H43" s="7">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="I43" s="6">
+      <c r="H43" s="3">
+        <v>0.142</v>
+      </c>
+      <c r="I43" s="7">
         <v>7544</v>
       </c>
-      <c r="J43" s="7">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="K43" s="6">
+      <c r="J43" s="3">
+        <v>0.089</v>
+      </c>
+      <c r="K43" s="7">
         <v>6</v>
       </c>
       <c r="L43" s="3">
-        <v>1.6759999999999999</v>
-      </c>
-      <c r="M43" s="6">
+        <v>1.676</v>
+      </c>
+      <c r="M43" s="7">
         <v>48937</v>
       </c>
-      <c r="N43" s="7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="O43" s="6">
+      <c r="N43" s="3">
+        <v>0.058</v>
+      </c>
+      <c r="O43" s="7">
         <v>0</v>
       </c>
-      <c r="P43" s="7">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="Q43" s="6">
+      <c r="P43" s="3">
+        <v>0.141</v>
+      </c>
+      <c r="Q43" s="7">
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A44" t="s">
-        <v>543</v>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21.75">
+      <c r="A44" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="B44" s="3">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="C44" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="C44" s="7">
         <v>8794</v>
       </c>
       <c r="D44" s="3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E44" s="6">
+        <v>0.145</v>
+      </c>
+      <c r="E44" s="7">
         <v>498</v>
       </c>
       <c r="F44" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G44" s="6">
+        <v>0.079</v>
+      </c>
+      <c r="G44" s="7">
         <v>11</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="3">
         <v>0.18</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="7">
         <v>26</v>
       </c>
-      <c r="J44" s="7">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="K44" s="6">
+      <c r="J44" s="3">
+        <v>0.097</v>
+      </c>
+      <c r="K44" s="7">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="M44" s="6">
+        <v>0.162</v>
+      </c>
+      <c r="M44" s="7">
         <v>178</v>
       </c>
-      <c r="N44" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O44" s="6">
+      <c r="N44" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="O44" s="7">
         <v>0</v>
       </c>
-      <c r="P44" s="7">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="Q44" s="6">
+      <c r="P44" s="3">
+        <v>0.149</v>
+      </c>
+      <c r="Q44" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A45" t="s">
-        <v>544</v>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21.75">
+      <c r="A45" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="B45" s="3">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C45" s="6">
+        <v>0.324</v>
+      </c>
+      <c r="C45" s="7">
         <v>13517</v>
       </c>
       <c r="D45" s="3">
         <v>0.16</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="7">
         <v>410</v>
       </c>
       <c r="F45" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="G45" s="6">
+        <v>0.085</v>
+      </c>
+      <c r="G45" s="7">
         <v>7</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="3">
         <v>0.185</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="7">
         <v>24</v>
       </c>
-      <c r="J45" s="7">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="K45" s="6">
+      <c r="J45" s="3">
+        <v>0.098</v>
+      </c>
+      <c r="K45" s="7">
         <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0.192</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="7">
         <v>166</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="3">
         <v>0.115</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="7">
         <v>0</v>
       </c>
-      <c r="P45" s="7">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="Q45" s="6">
+      <c r="P45" s="3">
+        <v>0.175</v>
+      </c>
+      <c r="Q45" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A46" t="s">
-        <v>545</v>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21.75">
+      <c r="A46" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="B46" s="3">
         <v>0.249</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>46363</v>
       </c>
       <c r="D46" s="3">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E46" s="6">
+        <v>0.136</v>
+      </c>
+      <c r="E46" s="7">
         <v>1109</v>
       </c>
       <c r="F46" s="3">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G46" s="6">
+        <v>0.068</v>
+      </c>
+      <c r="G46" s="7">
         <v>13</v>
       </c>
-      <c r="H46" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="H46" s="3">
+        <v>0.178</v>
+      </c>
+      <c r="I46" s="7">
         <v>42</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="3">
         <v>0.115</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="7">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="M46" s="6">
+        <v>0.145</v>
+      </c>
+      <c r="M46" s="7">
         <v>1558</v>
       </c>
-      <c r="N46" s="7">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="O46" s="6">
+      <c r="N46" s="3">
+        <v>0.084</v>
+      </c>
+      <c r="O46" s="7">
         <v>0</v>
       </c>
-      <c r="P46" s="7">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Q46" s="6">
+      <c r="P46" s="3">
+        <v>0.145</v>
+      </c>
+      <c r="Q46" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A47" t="s">
-        <v>546</v>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21.75">
+      <c r="A47" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="B47" s="3">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="C47" s="6">
+        <v>0.492</v>
+      </c>
+      <c r="C47" s="7">
         <v>42466</v>
       </c>
       <c r="D47" s="3">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="E47" s="6">
+        <v>0.199</v>
+      </c>
+      <c r="E47" s="7">
         <v>922</v>
       </c>
       <c r="F47" s="3">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="G47" s="6">
+        <v>0.134</v>
+      </c>
+      <c r="G47" s="7">
         <v>16</v>
       </c>
-      <c r="H47" s="7">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="I47" s="6">
+      <c r="H47" s="3">
+        <v>0.172</v>
+      </c>
+      <c r="I47" s="7">
         <v>40</v>
       </c>
-      <c r="J47" s="7">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="K47" s="6">
+      <c r="J47" s="3">
+        <v>0.166</v>
+      </c>
+      <c r="K47" s="7">
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="M47" s="6">
+        <v>0.213</v>
+      </c>
+      <c r="M47" s="7">
         <v>592</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="3">
         <v>0.115</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="7">
         <v>0</v>
       </c>
-      <c r="P47" s="7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="Q47" s="6">
+      <c r="P47" s="3">
+        <v>0.162</v>
+      </c>
+      <c r="Q47" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A48" t="s">
-        <v>547</v>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21.75">
+      <c r="A48" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="B48" s="3">
-        <v>4.0339999999999998</v>
-      </c>
-      <c r="C48" s="6">
+        <v>4.034</v>
+      </c>
+      <c r="C48" s="7">
         <v>262339</v>
       </c>
       <c r="D48" s="3">
-        <v>6.7069999999999999</v>
-      </c>
-      <c r="E48" s="6">
+        <v>6.707</v>
+      </c>
+      <c r="E48" s="7">
         <v>12869</v>
       </c>
       <c r="F48" s="3">
         <v>2.73</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>42</v>
       </c>
-      <c r="H48" s="7">
-        <v>5.0350000000000001</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="H48" s="3">
+        <v>5.035</v>
+      </c>
+      <c r="I48" s="7">
         <v>1</v>
       </c>
-      <c r="J48" s="7">
-        <v>2.8450000000000002</v>
-      </c>
-      <c r="K48" s="6">
+      <c r="J48" s="3">
+        <v>2.845</v>
+      </c>
+      <c r="K48" s="7">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>4.6689999999999996</v>
-      </c>
-      <c r="M48" s="6">
+        <v>4.669</v>
+      </c>
+      <c r="M48" s="7">
         <v>1373</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="3">
         <v>3.137</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="7">
         <v>0</v>
       </c>
-      <c r="P48" s="7">
-        <v>4.8369999999999997</v>
-      </c>
-      <c r="Q48" s="6">
+      <c r="P48" s="3">
+        <v>4.837</v>
+      </c>
+      <c r="Q48" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A49" t="s">
-        <v>548</v>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="B49" s="3">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="C49" s="6">
+        <v>1.311</v>
+      </c>
+      <c r="C49" s="7">
         <v>157802</v>
       </c>
       <c r="D49" s="3">
         <v>2.246</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="7">
         <v>5858</v>
       </c>
       <c r="F49" s="3">
-        <v>1.3029999999999999</v>
-      </c>
-      <c r="G49" s="6">
+        <v>1.303</v>
+      </c>
+      <c r="G49" s="7">
         <v>21</v>
       </c>
-      <c r="H49" s="7">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="I49" s="6">
+      <c r="H49" s="3">
+        <v>1.652</v>
+      </c>
+      <c r="I49" s="7">
         <v>1</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="3">
         <v>1.593</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="7">
         <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>1.538</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="7">
         <v>299</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="3">
         <v>1.258</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="7">
         <v>0</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="3">
         <v>1.6</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A50" t="s">
-        <v>549</v>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="6" t="s">
+        <v>540</v>
       </c>
       <c r="B50" s="3">
         <v>1.63</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>183252</v>
       </c>
       <c r="D50" s="3">
-        <v>2.9740000000000002</v>
-      </c>
-      <c r="E50" s="6">
+        <v>2.974</v>
+      </c>
+      <c r="E50" s="7">
         <v>7494</v>
       </c>
       <c r="F50" s="3">
-        <v>1.6020000000000001</v>
-      </c>
-      <c r="G50" s="6">
+        <v>1.602</v>
+      </c>
+      <c r="G50" s="7">
         <v>32</v>
       </c>
-      <c r="H50" s="7">
-        <v>2.8490000000000002</v>
-      </c>
-      <c r="I50" s="6">
+      <c r="H50" s="3">
+        <v>2.849</v>
+      </c>
+      <c r="I50" s="7">
         <v>2</v>
       </c>
-      <c r="J50" s="7">
-        <v>1.7589999999999999</v>
-      </c>
-      <c r="K50" s="6">
+      <c r="J50" s="3">
+        <v>1.759</v>
+      </c>
+      <c r="K50" s="7">
         <v>0</v>
       </c>
       <c r="L50" s="3">
         <v>1.87</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="7">
         <v>476</v>
       </c>
-      <c r="N50" s="7">
-        <v>1.7609999999999999</v>
-      </c>
-      <c r="O50" s="6">
+      <c r="N50" s="3">
+        <v>1.761</v>
+      </c>
+      <c r="O50" s="7">
         <v>0</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="3">
         <v>1.944</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A51" t="s">
-        <v>550</v>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="B51" s="3">
-        <v>21.126999999999999</v>
-      </c>
-      <c r="C51" s="6">
+        <v>21.127</v>
+      </c>
+      <c r="C51" s="7">
         <v>166635817</v>
       </c>
       <c r="D51" s="3">
-        <v>18.138000000000002</v>
-      </c>
-      <c r="E51" s="6">
+        <v>18.138</v>
+      </c>
+      <c r="E51" s="7">
         <v>112509146</v>
       </c>
       <c r="F51" s="3">
-        <v>4.1870000000000003</v>
-      </c>
-      <c r="G51" s="6">
+        <v>4.187</v>
+      </c>
+      <c r="G51" s="7">
         <v>5803397</v>
       </c>
-      <c r="H51" s="7">
-        <v>91.885999999999996</v>
-      </c>
-      <c r="I51" s="6">
+      <c r="H51" s="3">
+        <v>91.886</v>
+      </c>
+      <c r="I51" s="7">
         <v>2578196450</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="3">
         <v>22.477</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="7">
         <v>17417432</v>
       </c>
       <c r="L51" s="3">
-        <v>942.38099999999997</v>
-      </c>
-      <c r="M51" s="6">
+        <v>942.381</v>
+      </c>
+      <c r="M51" s="7">
         <v>4729789840</v>
       </c>
-      <c r="N51" s="7">
-        <v>119.81699999999999</v>
-      </c>
-      <c r="O51" s="6">
+      <c r="N51" s="3">
+        <v>119.817</v>
+      </c>
+      <c r="O51" s="7">
         <v>45703641</v>
       </c>
-      <c r="P51" s="7">
-        <v>66.742000000000004</v>
-      </c>
-      <c r="Q51" s="6">
+      <c r="P51" s="3">
+        <v>66.742</v>
+      </c>
+      <c r="Q51" s="7">
         <v>997173396</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A52" t="s">
-        <v>551</v>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="B52" s="3">
-        <v>15.385999999999999</v>
-      </c>
-      <c r="C52" s="6">
+        <v>15.386</v>
+      </c>
+      <c r="C52" s="7">
         <v>49965153</v>
       </c>
       <c r="D52" s="3">
         <v>8.891</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="7">
         <v>28774497</v>
       </c>
       <c r="F52" s="3">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="G52" s="6">
+        <v>2.261</v>
+      </c>
+      <c r="G52" s="7">
         <v>1989958</v>
       </c>
-      <c r="H52" s="7">
-        <v>60.921999999999997</v>
-      </c>
-      <c r="I52" s="6">
+      <c r="H52" s="3">
+        <v>60.922</v>
+      </c>
+      <c r="I52" s="7">
         <v>870174916</v>
       </c>
-      <c r="J52" s="7">
-        <v>17.172000000000001</v>
-      </c>
-      <c r="K52" s="6">
+      <c r="J52" s="3">
+        <v>17.172</v>
+      </c>
+      <c r="K52" s="7">
         <v>10667149</v>
       </c>
       <c r="L52" s="3">
-        <v>541.72299999999996</v>
-      </c>
-      <c r="M52" s="6">
+        <v>541.723</v>
+      </c>
+      <c r="M52" s="7">
         <v>1259485940</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="3">
         <v>102.733</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="7">
         <v>46754083</v>
       </c>
-      <c r="P52" s="7">
-        <v>56.820999999999998</v>
-      </c>
-      <c r="Q52" s="6">
+      <c r="P52" s="3">
+        <v>56.821</v>
+      </c>
+      <c r="Q52" s="7">
         <v>484393905</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A53" t="s">
-        <v>552</v>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="B53" s="3">
-        <v>17.681999999999999</v>
-      </c>
-      <c r="C53" s="6">
+        <v>17.682</v>
+      </c>
+      <c r="C53" s="7">
         <v>58678630</v>
       </c>
       <c r="D53" s="3">
         <v>13.567</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="7">
         <v>34060778</v>
       </c>
       <c r="F53" s="3">
-        <v>1.9770000000000001</v>
-      </c>
-      <c r="G53" s="6">
+        <v>1.977</v>
+      </c>
+      <c r="G53" s="7">
         <v>2260269</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="3">
         <v>81.134</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="7">
         <v>1027371282</v>
       </c>
-      <c r="J53" s="7">
-        <v>18.140999999999998</v>
-      </c>
-      <c r="K53" s="6">
+      <c r="J53" s="3">
+        <v>18.141</v>
+      </c>
+      <c r="K53" s="7">
         <v>12596328</v>
       </c>
       <c r="L53" s="3">
-        <v>2436.5500000000002</v>
-      </c>
-      <c r="M53" s="6">
+        <v>2436.55</v>
+      </c>
+      <c r="M53" s="7">
         <v>1477856348</v>
       </c>
-      <c r="N53" s="7">
-        <v>173.89500000000001</v>
-      </c>
-      <c r="O53" s="6">
+      <c r="N53" s="3">
+        <v>173.895</v>
+      </c>
+      <c r="O53" s="7">
         <v>57879044</v>
       </c>
-      <c r="P53" s="7">
-        <v>65.995999999999995</v>
-      </c>
-      <c r="Q53" s="6">
+      <c r="P53" s="3">
+        <v>65.996</v>
+      </c>
+      <c r="Q53" s="7">
         <v>569811453</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4984,7 +4945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5037,7 +4998,7 @@
         <v>2891271</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5090,7 +5051,7 @@
         <v>126529077</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -5143,7 +5104,7 @@
         <v>141362172</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -5196,7 +5157,7 @@
         <v>143515707</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -5249,7 +5210,7 @@
         <v>5221539</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -5302,7 +5263,7 @@
         <v>410823</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -5355,7 +5316,7 @@
         <v>2115036981</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -5408,7 +5369,7 @@
         <v>16737753</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -5461,7 +5422,7 @@
         <v>67338180</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -5514,7 +5475,7 @@
         <v>199285049763</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -5567,7 +5528,7 @@
         <v>8407782</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -5620,7 +5581,7 @@
         <v>209197863</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -5673,7 +5634,7 @@
         <v>439990809</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
@@ -5726,7 +5687,7 @@
         <v>214057482</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -5779,7 +5740,7 @@
         <v>304149126</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -5832,7 +5793,7 @@
         <v>62615709</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
@@ -5885,7 +5846,7 @@
         <v>18073550424</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>170</v>
       </c>
@@ -5938,7 +5899,7 @@
         <v>27983368444857</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -5991,7 +5952,7 @@
         <v>770479983</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>188</v>
       </c>
@@ -6044,7 +6005,7 @@
         <v>843084102</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
@@ -6097,7 +6058,7 @@
         <v>2584989</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
@@ -6150,7 +6111,7 @@
         <v>1653027</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>215</v>
       </c>
@@ -6203,7 +6164,7 @@
         <v>2715672</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>223</v>
       </c>
@@ -6256,7 +6217,7 @@
         <v>2981766</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>232</v>
       </c>
@@ -6309,7 +6270,7 @@
         <v>2697855</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>241</v>
       </c>
@@ -6362,7 +6323,7 @@
         <v>2617554</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>250</v>
       </c>
@@ -6415,7 +6376,7 @@
         <v>2619801</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>259</v>
       </c>
@@ -6468,7 +6429,7 @@
         <v>2752923</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>267</v>
       </c>
@@ -6521,7 +6482,7 @@
         <v>2979066</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>275</v>
       </c>
@@ -6574,7 +6535,7 @@
         <v>55375107</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>284</v>
       </c>
@@ -6627,7 +6588,7 @@
         <v>47372241</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>293</v>
       </c>
@@ -6680,7 +6641,7 @@
         <v>63016083</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>302</v>
       </c>
@@ -6733,7 +6694,7 @@
         <v>50902146</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>311</v>
       </c>
@@ -6786,7 +6747,7 @@
         <v>45054363</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>320</v>
       </c>
@@ -6839,7 +6800,7 @@
         <v>39614316</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>328</v>
       </c>
@@ -6892,7 +6853,7 @@
         <v>40337997</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>336</v>
       </c>
@@ -6945,7 +6906,7 @@
         <v>56056512</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
@@ -6998,7 +6959,7 @@
         <v>70406592</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>353</v>
       </c>
@@ -7051,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>362</v>
       </c>
@@ -7104,7 +7065,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>370</v>
       </c>
@@ -7157,7 +7118,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>378</v>
       </c>
@@ -7210,7 +7171,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>387</v>
       </c>
@@ -7218,37 +7179,37 @@
         <v>388</v>
       </c>
       <c r="C44" s="3">
-        <v>96902</v>
+        <v>8794</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E44" s="3">
-        <v>15472</v>
+        <v>498</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>390</v>
       </c>
       <c r="G44" s="3">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I44" s="3">
-        <v>7577</v>
+        <v>26</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>392</v>
       </c>
       <c r="K44" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>393</v>
       </c>
       <c r="M44" s="3">
-        <v>48445</v>
+        <v>178</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>394</v>
@@ -7260,10 +7221,10 @@
         <v>395</v>
       </c>
       <c r="Q44" s="3">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>396</v>
       </c>
@@ -7271,25 +7232,25 @@
         <v>397</v>
       </c>
       <c r="C45" s="3">
-        <v>8794</v>
+        <v>13517</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>398</v>
       </c>
       <c r="E45" s="3">
-        <v>498</v>
+        <v>410</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>399</v>
       </c>
       <c r="G45" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>401</v>
@@ -7301,7 +7262,7 @@
         <v>402</v>
       </c>
       <c r="M45" s="3">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>403</v>
@@ -7316,7 +7277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>405</v>
       </c>
@@ -7324,25 +7285,25 @@
         <v>406</v>
       </c>
       <c r="C46" s="3">
-        <v>13517</v>
+        <v>46363</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>407</v>
       </c>
       <c r="E46" s="3">
-        <v>410</v>
+        <v>1109</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>408</v>
       </c>
       <c r="G46" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I46" s="3">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>410</v>
@@ -7354,7 +7315,7 @@
         <v>411</v>
       </c>
       <c r="M46" s="3">
-        <v>166</v>
+        <v>1558</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>412</v>
@@ -7366,10 +7327,10 @@
         <v>413</v>
       </c>
       <c r="Q46" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>414</v>
       </c>
@@ -7377,25 +7338,25 @@
         <v>415</v>
       </c>
       <c r="C47" s="3">
-        <v>46363</v>
+        <v>42466</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>416</v>
       </c>
       <c r="E47" s="3">
-        <v>1109</v>
+        <v>922</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>417</v>
       </c>
       <c r="G47" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>418</v>
       </c>
       <c r="I47" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>419</v>
@@ -7404,78 +7365,78 @@
         <v>0</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" s="3">
+        <v>592</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1558</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="Q47" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="3">
+        <v>262339</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="3">
+        <v>12869</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C48" s="3">
-        <v>42466</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="G48" s="3">
+        <v>42</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E48" s="3">
-        <v>922</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="G48" s="3">
-        <v>16</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I48" s="3">
-        <v>40</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="M48" s="3">
-        <v>592</v>
+        <v>1373</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="Q48" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
         <v>430</v>
       </c>
@@ -7483,19 +7444,19 @@
         <v>431</v>
       </c>
       <c r="C49" s="3">
-        <v>262339</v>
+        <v>157802</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E49" s="3">
-        <v>12869</v>
+        <v>5858</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>433</v>
       </c>
       <c r="G49" s="3">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>434</v>
@@ -7513,7 +7474,7 @@
         <v>436</v>
       </c>
       <c r="M49" s="3">
-        <v>1373</v>
+        <v>299</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>437</v>
@@ -7528,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
         <v>439</v>
       </c>
@@ -7536,25 +7497,25 @@
         <v>440</v>
       </c>
       <c r="C50" s="3">
-        <v>157802</v>
+        <v>183252</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>441</v>
       </c>
       <c r="E50" s="3">
-        <v>5858</v>
+        <v>7494</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>442</v>
       </c>
       <c r="G50" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>443</v>
       </c>
       <c r="I50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>444</v>
@@ -7566,7 +7527,7 @@
         <v>445</v>
       </c>
       <c r="M50" s="3">
-        <v>299</v>
+        <v>476</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>446</v>
@@ -7581,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>448</v>
       </c>
@@ -7589,52 +7550,52 @@
         <v>449</v>
       </c>
       <c r="C51" s="3">
-        <v>183252</v>
+        <v>166635817</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>450</v>
       </c>
       <c r="E51" s="3">
-        <v>7494</v>
+        <v>112509146</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>451</v>
       </c>
       <c r="G51" s="3">
-        <v>32</v>
+        <v>5803397</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>452</v>
       </c>
       <c r="I51" s="3">
-        <v>2</v>
+        <v>2578196450</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>453</v>
       </c>
       <c r="K51" s="3">
-        <v>0</v>
+        <v>17417432</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="M51" s="3">
-        <v>476</v>
+        <v>4729789840</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>455</v>
       </c>
       <c r="O51" s="3">
-        <v>0</v>
+        <v>45703641</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>456</v>
       </c>
       <c r="Q51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1">
+        <v>997173396</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>457</v>
       </c>
@@ -7642,52 +7603,52 @@
         <v>458</v>
       </c>
       <c r="C52" s="3">
-        <v>166635817</v>
+        <v>49965153</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E52" s="3">
-        <v>112509146</v>
+        <v>28774497</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>460</v>
       </c>
       <c r="G52" s="3">
-        <v>5803397</v>
+        <v>1989958</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>461</v>
       </c>
       <c r="I52" s="3">
-        <v>2578196450</v>
+        <v>870174916</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>462</v>
       </c>
       <c r="K52" s="3">
-        <v>17417432</v>
+        <v>10667149</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>463</v>
       </c>
       <c r="M52" s="3">
-        <v>4729789840</v>
+        <v>1259485940</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>464</v>
       </c>
       <c r="O52" s="3">
-        <v>45703641</v>
+        <v>46754083</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>465</v>
       </c>
       <c r="Q52" s="3">
-        <v>997173396</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1">
+        <v>484393905</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
         <v>466</v>
       </c>
@@ -7695,106 +7656,52 @@
         <v>467</v>
       </c>
       <c r="C53" s="3">
-        <v>49965153</v>
+        <v>58678630</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>468</v>
       </c>
       <c r="E53" s="3">
-        <v>28774497</v>
+        <v>34060778</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>469</v>
       </c>
       <c r="G53" s="3">
-        <v>1989958</v>
+        <v>2260269</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>470</v>
       </c>
       <c r="I53" s="3">
-        <v>870174916</v>
+        <v>1027371282</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>471</v>
       </c>
       <c r="K53" s="3">
-        <v>10667149</v>
+        <v>12596328</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>472</v>
       </c>
       <c r="M53" s="3">
-        <v>1259485940</v>
+        <v>1477856348</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>473</v>
       </c>
       <c r="O53" s="3">
-        <v>46754083</v>
+        <v>57879044</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>474</v>
       </c>
       <c r="Q53" s="3">
-        <v>484393905</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C54" s="3">
-        <v>58678630</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E54" s="3">
-        <v>34060778</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2260269</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1027371282</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="K54" s="3">
-        <v>12596328</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1477856348</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="O54" s="3">
-        <v>57879044</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q54" s="3">
         <v>569811453</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/AllPatern/AllPatern.xlsx
+++ b/result/AllPatern/AllPatern.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>graph</t>
   </si>
@@ -284,9 +284,6 @@
     <t>13.5219ms</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Graph/Pattern</t>
   </si>
   <si>
@@ -308,22 +305,22 @@
     <t>Q3 count</t>
   </si>
   <si>
+    <t>Q4 time</t>
+  </si>
+  <si>
+    <t>Q4 count</t>
+  </si>
+  <si>
+    <t>Q5 time</t>
+  </si>
+  <si>
+    <t>Q5 count</t>
+  </si>
+  <si>
     <t>Q6 time</t>
   </si>
   <si>
     <t>Q6 count</t>
-  </si>
-  <si>
-    <t>Q7 time</t>
-  </si>
-  <si>
-    <t>Q7 count</t>
-  </si>
-  <si>
-    <t>Q8 time</t>
-  </si>
-  <si>
-    <t>Q8 count</t>
   </si>
   <si>
     <t>Q11 time</t>
@@ -409,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,9 +416,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,9 +428,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -752,1425 +743,1337 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="6" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
-      <c r="A2" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="B2" s="3">
         <v>1.71</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2477087</v>
       </c>
       <c r="D2" s="3">
         <v>3.1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>3110467</v>
       </c>
       <c r="F2" s="3">
         <v>1.56</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>304441</v>
       </c>
       <c r="H2" s="3">
         <v>5.52</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>4915256</v>
       </c>
       <c r="J2" s="3">
         <v>1.76</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>67942</v>
       </c>
       <c r="L2" s="3">
         <v>10.48</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>6405886</v>
       </c>
       <c r="N2" s="3">
         <v>2.29</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>6267</v>
       </c>
       <c r="P2" s="3">
         <v>4.9</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>2891271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
-      <c r="A3" s="7" t="s">
-        <v>108</v>
+      <c r="A3" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="3">
         <v>10.16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>35492004</v>
       </c>
       <c r="D3" s="3">
         <v>15.68</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>45276121</v>
       </c>
       <c r="F3" s="3">
         <v>6.79</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>4361282</v>
       </c>
       <c r="H3" s="3">
         <v>40.18</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>229617605</v>
       </c>
       <c r="J3" s="3">
         <v>9.52</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>3543622</v>
       </c>
       <c r="L3" s="3">
         <v>158.15</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>282891801</v>
       </c>
       <c r="N3" s="3">
         <v>12.95</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>2147049</v>
       </c>
       <c r="P3" s="3">
         <v>43.84</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <v>141362172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="7" t="s">
-        <v>109</v>
+      <c r="A4" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="3">
         <v>10.13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>35661461</v>
       </c>
       <c r="D4" s="3">
         <v>15.9</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>45701006</v>
       </c>
       <c r="F4" s="3">
         <v>6.4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>4420994</v>
       </c>
       <c r="H4" s="3">
         <v>48.61</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>232448240</v>
       </c>
       <c r="J4" s="3">
         <v>7.18</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>3606466</v>
       </c>
       <c r="L4" s="3">
         <v>159.38</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>285794903</v>
       </c>
       <c r="N4" s="3">
         <v>9.86</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>2193997</v>
       </c>
       <c r="P4" s="3">
         <v>44.8</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>143515707</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="7" t="s">
-        <v>110</v>
+      <c r="A5" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="3">
         <v>76.15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>341906226</v>
       </c>
       <c r="D5" s="3">
         <v>60.3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>83785566</v>
       </c>
       <c r="F5" s="3">
         <v>18.54</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>3501071</v>
       </c>
       <c r="H5" s="3">
         <v>0.09</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>446804010</v>
       </c>
       <c r="J5" s="3">
         <v>49.17</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>3039636</v>
       </c>
       <c r="L5" s="3">
         <v>534.04</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>1776150458</v>
       </c>
       <c r="N5" s="3">
         <v>58.66</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>3151595</v>
       </c>
       <c r="P5" s="3">
         <v>100.39</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>214057482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="7" t="s">
-        <v>111</v>
+      <c r="A6" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B6" s="3">
         <v>1124.78</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>23124971168</v>
       </c>
       <c r="D6" s="3">
         <v>2067.47</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>37701640669</v>
       </c>
       <c r="F6" s="3">
         <v>16.67</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>47798166</v>
       </c>
       <c r="H6" s="3">
         <v>65799.2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>31234180596</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>47798166</v>
       </c>
       <c r="L6" s="3">
         <v>1277.58</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>37701640669</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>47798166</v>
       </c>
       <c r="P6" s="3">
         <v>41826.3</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>62468361192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
-      <c r="A7" s="7" t="s">
-        <v>112</v>
+      <c r="A7" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B7" s="3">
         <v>4.03</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>262339</v>
       </c>
       <c r="D7" s="3">
         <v>6.71</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>12869</v>
       </c>
       <c r="F7" s="3">
         <v>2.73</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>42</v>
       </c>
       <c r="H7" s="3">
         <v>5.04</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="3">
         <v>2.85</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>4.67</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>1373</v>
       </c>
       <c r="N7" s="3">
         <v>3.14</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="3">
         <v>4.84</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
-      <c r="A8" s="7" t="s">
-        <v>113</v>
+      <c r="A8" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B8" s="3">
         <v>1.31</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>157802</v>
       </c>
       <c r="D8" s="3">
         <v>2.25</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>5858</v>
       </c>
       <c r="F8" s="3">
         <v>1.3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>21</v>
       </c>
       <c r="H8" s="3">
         <v>1.65</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>1.59</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>1.54</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>299</v>
       </c>
       <c r="N8" s="3">
         <v>1.26</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>1.6</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
-      <c r="A9" s="7" t="s">
-        <v>114</v>
+      <c r="A9" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="3">
         <v>1.63</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>183252</v>
       </c>
       <c r="D9" s="3">
         <v>2.97</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>7494</v>
       </c>
       <c r="F9" s="3">
         <v>1.6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>32</v>
       </c>
       <c r="H9" s="3">
         <v>2.85</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>2</v>
       </c>
       <c r="J9" s="3">
         <v>1.76</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>1.87</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>476</v>
       </c>
       <c r="N9" s="3">
         <v>1.76</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>1.94</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
-      <c r="A10" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="8"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
-      <c r="A11" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="8"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
-      <c r="A12" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="8"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
-      <c r="A13" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
-      <c r="A14" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="8"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
-      <c r="A15" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="8"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
-      <c r="A16" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="8"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
-      <c r="A17" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="8"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
-      <c r="A18" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="8"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="8"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
-      <c r="A19" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="8"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="8"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
-      <c r="A20" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="8"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
-      <c r="A21" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="8"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="8"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A22" s="6"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="8"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="8"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="8"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A24" s="6"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="8"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="8"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="7"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="8"/>
+      <c r="O26" s="7"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="8"/>
+      <c r="Q26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="8"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="8"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="7"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="8"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="8"/>
+      <c r="O29" s="7"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A30" s="6"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="8"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="8"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="8"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="8"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="8"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="8"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="8"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="8"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="8"/>
+      <c r="Q32" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="8"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="8"/>
+      <c r="O33" s="7"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="8"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="8"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="8"/>
+      <c r="O34" s="7"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="8"/>
+      <c r="Q34" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="8"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="8"/>
+      <c r="O35" s="7"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="8"/>
+      <c r="Q35" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21.75">
-      <c r="A36" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="8"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="8"/>
+      <c r="O36" s="7"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="8"/>
+      <c r="Q36" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21.75">
-      <c r="A37" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A37" s="6"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="8"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="8"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="8"/>
+      <c r="M37" s="7"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="8"/>
+      <c r="O37" s="7"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="8"/>
+      <c r="Q37" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21.75">
-      <c r="A38" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="8"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="8"/>
+      <c r="O38" s="7"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="8"/>
+      <c r="Q38" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
-      <c r="A39" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="8"/>
+      <c r="M39" s="7"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="8"/>
+      <c r="O39" s="7"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="8"/>
+      <c r="Q39" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21.75">
-      <c r="A40" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A40" s="6"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="8"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="8"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="8"/>
+      <c r="M40" s="7"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="8"/>
+      <c r="O40" s="7"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="8"/>
+      <c r="Q40" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21.75">
-      <c r="A41" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="8"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="8"/>
+      <c r="M41" s="7"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="8"/>
+      <c r="O41" s="7"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="8"/>
+      <c r="Q41" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21.75">
-      <c r="A42" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A42" s="6"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="8"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="8"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="8"/>
+      <c r="O42" s="7"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="8"/>
+      <c r="Q42" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21.75">
-      <c r="A43" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="8"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="8"/>
+      <c r="M43" s="7"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="8"/>
+      <c r="O43" s="7"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21.75">
-      <c r="A44" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="8"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="8"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="8"/>
+      <c r="O44" s="7"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="8"/>
+      <c r="Q44" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21.75">
-      <c r="A45" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="8"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="8"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="8"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="8"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="8"/>
+      <c r="O45" s="7"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21.75">
-      <c r="A46" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="8"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="8"/>
+      <c r="K46" s="7"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="8"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="8"/>
+      <c r="O46" s="7"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21.75">
-      <c r="A47" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A47" s="6"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="8"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="8"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="8"/>
+      <c r="O47" s="7"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="8"/>
+      <c r="Q47" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21.75">
-      <c r="A48" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="8"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="8"/>
+      <c r="M48" s="7"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="8"/>
+      <c r="O48" s="7"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="8"/>
+      <c r="Q48" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="8"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="8"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="8"/>
+      <c r="M49" s="7"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="8"/>
+      <c r="O49" s="7"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="8"/>
+      <c r="Q49" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A50" s="6"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="8"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="8"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="8"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="8"/>
+      <c r="M50" s="7"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="8"/>
+      <c r="O50" s="7"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="8"/>
+      <c r="Q50" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="8"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="8"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="8"/>
+      <c r="M51" s="7"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="8"/>
+      <c r="O51" s="7"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="8"/>
+      <c r="Q51" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A52" s="6"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="8"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="8"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="8"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="8"/>
+      <c r="M52" s="7"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="8"/>
+      <c r="O52" s="7"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="8"/>
+      <c r="Q52" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A53" s="6"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="8"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="8"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="8"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="8"/>
+      <c r="M53" s="7"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="8"/>
+      <c r="O53" s="7"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="8"/>
+      <c r="Q53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,26 +2091,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="37.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +2216,7 @@
         <v>2891271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2366,7 +2269,7 @@
         <v>141362172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2419,7 +2322,7 @@
         <v>143515707</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2375,7 @@
         <v>214057482</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -2525,7 +2428,7 @@
         <v>27983368444857</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2578,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2684,10 +2587,8 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
-      <c r="A10" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
@@ -2705,10 +2606,8 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
-      <c r="A11" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
@@ -2726,10 +2625,8 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
-      <c r="A12" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
@@ -2747,10 +2644,8 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
-      <c r="A13" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
@@ -2768,10 +2663,8 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
-      <c r="A14" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
@@ -2789,10 +2682,8 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
-      <c r="A15" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
@@ -2810,10 +2701,8 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
-      <c r="A16" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
@@ -2831,10 +2720,8 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
-      <c r="A17" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
@@ -2852,10 +2739,8 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
-      <c r="A18" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
@@ -2873,10 +2758,8 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
-      <c r="A19" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
@@ -2894,10 +2777,8 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
@@ -2915,10 +2796,8 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
@@ -2936,10 +2815,8 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
@@ -2957,10 +2834,8 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
@@ -2978,1114 +2853,574 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J24" s="1"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L24" s="1"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P24" s="1"/>
       <c r="Q24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L25" s="1"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N25" s="1"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P25" s="1"/>
       <c r="Q25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L26" s="1"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N26" s="1"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P26" s="1"/>
       <c r="Q26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L27" s="1"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N27" s="1"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P27" s="1"/>
       <c r="Q27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L28" s="1"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N28" s="1"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P28" s="1"/>
       <c r="Q28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J29" s="1"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L29" s="1"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N29" s="1"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J30" s="1"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L30" s="1"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N30" s="1"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P30" s="1"/>
       <c r="Q30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L31" s="1"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L32" s="1"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P32" s="1"/>
       <c r="Q32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75">
-      <c r="A33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L33" s="1"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N33" s="1"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P33" s="1"/>
       <c r="Q33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75">
-      <c r="A34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L34" s="1"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N34" s="1"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P34" s="1"/>
       <c r="Q34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21.75">
-      <c r="A35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L35" s="1"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P35" s="1"/>
       <c r="Q35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21.75">
-      <c r="A36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L36" s="1"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P36" s="1"/>
       <c r="Q36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21.75">
-      <c r="A37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L37" s="1"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N37" s="1"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P37" s="1"/>
       <c r="Q37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21.75">
-      <c r="A38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L38" s="1"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N38" s="1"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P38" s="1"/>
       <c r="Q38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
-      <c r="A39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J39" s="1"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L39" s="1"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N39" s="1"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21.75">
-      <c r="A40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L40" s="1"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N40" s="1"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P40" s="1"/>
       <c r="Q40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21.75">
-      <c r="A41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L41" s="1"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N41" s="1"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21.75">
-      <c r="A42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J42" s="1"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L42" s="1"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N42" s="1"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21.75">
-      <c r="A43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L43" s="1"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21.75">
-      <c r="A44" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J44" s="1"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L44" s="1"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N44" s="1"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21.75">
-      <c r="A45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H45" s="1"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J45" s="1"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L45" s="1"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N45" s="1"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21.75">
-      <c r="A46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H46" s="1"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J46" s="1"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L46" s="1"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N46" s="1"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21.75">
-      <c r="A47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H47" s="1"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L47" s="1"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N47" s="1"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21.75">
-      <c r="A48" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J48" s="1"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L48" s="1"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N48" s="1"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="21.75">
-      <c r="A49" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J49" s="1"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L49" s="1"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="21.75">
-      <c r="A50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L50" s="1"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N50" s="1"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="21.75">
-      <c r="A51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H51" s="1"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L51" s="1"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N51" s="1"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="21.75">
-      <c r="A52" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H52" s="1"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J52" s="1"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L52" s="1"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N52" s="1"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P52" s="1"/>
       <c r="Q52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="21.75">
-      <c r="A53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J53" s="1"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="L53" s="1"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N53" s="1"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="P53" s="1"/>
       <c r="Q53" s="3"/>
     </row>
   </sheetData>
